--- a/data/processed/main_experiment_results.xlsx
+++ b/data/processed/main_experiment_results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30459E-8DE7-4B3D-8C95-20641E3E18FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7588F8F-0F74-4C20-AE71-4E8D7063C6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28800" yWindow="3045" windowWidth="16710" windowHeight="15600" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical" sheetId="1" r:id="rId1"/>
     <sheet name="Participant B - Device" sheetId="2" r:id="rId2"/>
     <sheet name="Participant A - Device" sheetId="3" r:id="rId3"/>
+    <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="89">
   <si>
     <t>Living Room</t>
   </si>
@@ -240,14 +241,85 @@
   </si>
   <si>
     <t>Hallway - PA 1.0m - End</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Device A Timecode</t>
+  </si>
+  <si>
+    <t>Device B Timecode</t>
+  </si>
+  <si>
+    <t>Device A Distance</t>
+  </si>
+  <si>
+    <t>Device B Distance</t>
+  </si>
+  <si>
+    <t>Real Distance</t>
+  </si>
+  <si>
+    <t>Device Timing Difference</t>
+  </si>
+  <si>
+    <t>Expected Distance</t>
+  </si>
+  <si>
+    <t>Real vs Expected</t>
+  </si>
+  <si>
+    <t>Device A Difference Real</t>
+  </si>
+  <si>
+    <t>Device B Difference Real</t>
+  </si>
+  <si>
+    <t>Device A Difference Exp</t>
+  </si>
+  <si>
+    <t>Device B Difference Exp</t>
+  </si>
+  <si>
+    <t>Living Room Average</t>
+  </si>
+  <si>
+    <t>Garden Average</t>
+  </si>
+  <si>
+    <t>Hallway Average</t>
+  </si>
+  <si>
+    <t>Overall Average</t>
+  </si>
+  <si>
+    <t>Living Room STD</t>
+  </si>
+  <si>
+    <t>Garden STD</t>
+  </si>
+  <si>
+    <t>Hallway STD</t>
+  </si>
+  <si>
+    <t>Overall STD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,15 +347,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFD194-12AD-4A2E-AEE9-1728D47B2D19}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -618,12 +694,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -710,12 +786,12 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -788,12 +864,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -877,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2150F36-25C6-4998-8E0C-E6F927CC537E}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +978,7 @@
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -930,33 +1006,40 @@
       <c r="J1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1612991398372</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <f>I3-I2</f>
+        <v>75093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1612991398372</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1612991431442</v>
       </c>
       <c r="E3">
-        <f>D3-C3</f>
+        <f t="shared" ref="E3:E16" si="0">D3-C3</f>
         <v>33070</v>
       </c>
       <c r="F3" t="s">
@@ -965,420 +1048,448 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>1612991473465</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1612991436897</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1612991440135</v>
       </c>
       <c r="E4">
-        <f>D4-C4</f>
+        <f t="shared" si="0"/>
         <v>3238</v>
       </c>
-      <c r="F4" s="3">
-        <f>C4-D3</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F16" si="1">C4-D3</f>
         <v>5455</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>1612991477888</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <f>I5-I4</f>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1612991464740</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1612991473465</v>
       </c>
       <c r="E5">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>8725</v>
       </c>
-      <c r="F5" s="3">
-        <f>C5-D4</f>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
         <v>24605</v>
       </c>
-      <c r="I5" s="3">
-        <v>1612991529002</v>
+      <c r="I5" s="2">
+        <v>1612991523564</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1612991477888</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1612991507184</v>
       </c>
       <c r="E6">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>29296</v>
       </c>
       <c r="F6">
-        <f>C6-D5</f>
+        <f t="shared" si="1"/>
         <v>4423</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1612991761375</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <f>I7-I6</f>
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1612991521543</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1612991523564</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="F7">
-        <f>C7-D6</f>
+        <f t="shared" si="1"/>
         <v>14359</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1612991804456</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1612991529002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1612991529002</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>C8-D7</f>
+        <f t="shared" si="1"/>
         <v>5438</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1612991823073</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <f>I9-I8</f>
+        <v>26104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1612991761375</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1612991792876</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>31501</v>
       </c>
       <c r="F9">
-        <f>C9-D8</f>
+        <f t="shared" si="1"/>
         <v>232373</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1612991849177</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1612991798058</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1612991804456</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>6398</v>
       </c>
       <c r="F10">
-        <f>C10-D9</f>
+        <f t="shared" si="1"/>
         <v>5182</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1612991947498</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <f>I11-I10</f>
+        <v>26371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1612991823073</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1612991849177</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>26104</v>
       </c>
       <c r="F11">
-        <f>C11-D10</f>
+        <f t="shared" si="1"/>
         <v>18617</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1612991973869</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1612991943941</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1612991943941</v>
       </c>
       <c r="E12">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>C12-D11</f>
+        <f t="shared" si="1"/>
         <v>94764</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>1612992016487</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <f>I13-I12</f>
+        <v>17190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1612991947498</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1612991960549</v>
       </c>
       <c r="E13">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>13051</v>
       </c>
       <c r="F13">
-        <f>C13-D12</f>
+        <f t="shared" si="1"/>
         <v>3557</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1612992033677</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1612991965102</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>1612991967579</v>
       </c>
       <c r="E14">
-        <f>D14-C14</f>
+        <f t="shared" si="0"/>
         <v>2477</v>
       </c>
       <c r="F14">
-        <f>C14-D13</f>
+        <f t="shared" si="1"/>
         <v>4553</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1612993147563</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <f>I15-I14</f>
+        <v>26365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1612991970946</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1612991973869</v>
       </c>
       <c r="E15">
-        <f>D15-C15</f>
+        <f t="shared" si="0"/>
         <v>2923</v>
       </c>
       <c r="F15">
-        <f>C15-D14</f>
+        <f t="shared" si="1"/>
         <v>3367</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>1612993173928</v>
       </c>
       <c r="J15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1612992016487</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1612992033677</v>
       </c>
       <c r="E16">
-        <f>D16-C16</f>
+        <f t="shared" si="0"/>
         <v>17190</v>
       </c>
       <c r="F16">
-        <f>C16-D15</f>
+        <f t="shared" si="1"/>
         <v>42618</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>1612993192101</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="K16" s="2">
+        <f>I17-I16</f>
+        <v>35162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1612993227263</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1612993147563</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1612993167262</v>
       </c>
       <c r="E18">
-        <f>D18-C18</f>
+        <f t="shared" ref="E18:E26" si="2">D18-C18</f>
         <v>19699</v>
       </c>
       <c r="F18">
@@ -1388,280 +1499,300 @@
       <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>1612993275680</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2">
+        <f>I19-I18</f>
+        <v>18306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1612993172575</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1612993173928</v>
       </c>
       <c r="E19">
-        <f>D19-C19</f>
+        <f t="shared" si="2"/>
         <v>1353</v>
       </c>
       <c r="F19">
-        <f>C19-D18</f>
+        <f t="shared" ref="F19:F26" si="3">C19-D18</f>
         <v>5313</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>1612993293986</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1612993192101</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1612993227263</v>
       </c>
       <c r="E20">
-        <f>D20-C20</f>
+        <f t="shared" si="2"/>
         <v>35162</v>
       </c>
       <c r="F20">
-        <f>C20-D19</f>
+        <f t="shared" si="3"/>
         <v>18173</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1612993318833</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f>I21-I20</f>
+        <v>19034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1612993275680</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1612993293986</v>
       </c>
       <c r="E21">
-        <f>D21-C21</f>
+        <f t="shared" si="2"/>
         <v>18306</v>
       </c>
       <c r="F21">
-        <f>C21-D20</f>
+        <f t="shared" si="3"/>
         <v>48417</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1612993337867</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1612993306684</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>1612993306684</v>
       </c>
       <c r="E22">
-        <f>D22-C22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>C22-D21</f>
+        <f t="shared" si="3"/>
         <v>12698</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>1612993376433</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2">
+        <f>I23-I22</f>
+        <v>18137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>1612993318833</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1612993337867</v>
       </c>
       <c r="E23">
-        <f>D23-C23</f>
+        <f t="shared" si="2"/>
         <v>19034</v>
       </c>
       <c r="F23">
-        <f>C23-D22</f>
+        <f t="shared" si="3"/>
         <v>12149</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>1612993394570</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1612993376433</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>1612993394570</v>
       </c>
       <c r="E24">
-        <f>D24-C24</f>
+        <f t="shared" si="2"/>
         <v>18137</v>
       </c>
       <c r="F24">
-        <f>C24-D23</f>
+        <f t="shared" si="3"/>
         <v>38566</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>1612993421026</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <f>I25-I24</f>
+        <v>12191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>1612993421026</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>1612993433217</v>
       </c>
       <c r="E25">
-        <f>D25-C25</f>
+        <f t="shared" si="2"/>
         <v>12191</v>
       </c>
       <c r="F25">
-        <f>C25-D24</f>
+        <f t="shared" si="3"/>
         <v>26456</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>1612993433217</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1612993729826</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1612993729826</v>
       </c>
       <c r="E26">
-        <f>D26-C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>C26-D25</f>
+        <f t="shared" si="3"/>
         <v>296609</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>1612993769733</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="K26" s="2">
+        <f>I27-I26</f>
+        <v>51071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>1612993820804</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1612993769733</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1612993772647</v>
       </c>
       <c r="E28">
-        <f>D28-C28</f>
+        <f t="shared" ref="E28:E44" si="4">D28-C28</f>
         <v>2914</v>
       </c>
       <c r="F28">
@@ -1671,431 +1802,451 @@
       <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>1612993830525</v>
       </c>
       <c r="J28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <f>I29-I28</f>
+        <v>29121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1612993778186</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1612993795202</v>
       </c>
       <c r="E29">
-        <f>D29-C29</f>
+        <f t="shared" si="4"/>
         <v>17016</v>
       </c>
       <c r="F29">
-        <f>C29-D28</f>
+        <f t="shared" ref="F29:F44" si="5">C29-D28</f>
         <v>5539</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>1612993859646</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>1612993798488</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>1612993820804</v>
       </c>
       <c r="E30">
-        <f>D30-C30</f>
+        <f t="shared" si="4"/>
         <v>22316</v>
       </c>
       <c r="F30">
-        <f>C30-D29</f>
+        <f t="shared" si="5"/>
         <v>3286</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>1612993914186</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <f>I31-I30</f>
+        <v>23480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>1612993826161</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>1612993827097</v>
       </c>
       <c r="E31">
-        <f>D31-C31</f>
+        <f t="shared" si="4"/>
         <v>936</v>
       </c>
       <c r="F31">
-        <f>C31-D30</f>
+        <f t="shared" si="5"/>
         <v>5357</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>1612993937666</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>1612993830525</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>1612993842761</v>
       </c>
       <c r="E32">
-        <f>D32-C32</f>
+        <f t="shared" si="4"/>
         <v>12236</v>
       </c>
       <c r="F32">
-        <f>C32-D31</f>
+        <f t="shared" si="5"/>
         <v>3428</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>1612993959401</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <f>I33-I32</f>
+        <v>26367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1612993846141</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1612993846141</v>
       </c>
       <c r="E33">
-        <f>D33-C33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>C33-D32</f>
+        <f t="shared" si="5"/>
         <v>3380</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>1612993985768</v>
       </c>
       <c r="J33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1612993849424</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1612993859646</v>
       </c>
       <c r="E34">
-        <f>D34-C34</f>
+        <f t="shared" si="4"/>
         <v>10222</v>
       </c>
       <c r="F34">
-        <f>C34-D33</f>
+        <f t="shared" si="5"/>
         <v>3283</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>1612994054357</v>
       </c>
       <c r="J34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <f>I35-I34</f>
+        <v>22708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>1612993914186</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>1612993931372</v>
       </c>
       <c r="E35">
-        <f>D35-C35</f>
+        <f t="shared" si="4"/>
         <v>17186</v>
       </c>
       <c r="F35">
-        <f>C35-D34</f>
+        <f t="shared" si="5"/>
         <v>54540</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>1612994077065</v>
       </c>
       <c r="J35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1612993937666</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1612993937666</v>
       </c>
       <c r="E36">
-        <f>D36-C36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>C36-D35</f>
+        <f t="shared" si="5"/>
         <v>6294</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>1612994096928</v>
       </c>
       <c r="J36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <f>I37-I36</f>
+        <v>28790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1612993959401</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1612993961705</v>
       </c>
       <c r="E37">
-        <f>D37-C37</f>
+        <f t="shared" si="4"/>
         <v>2304</v>
       </c>
       <c r="F37">
-        <f>C37-D36</f>
+        <f t="shared" si="5"/>
         <v>21735</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>1612994125718</v>
       </c>
       <c r="J37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1612993965112</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1612993985768</v>
       </c>
       <c r="E38">
-        <f>D38-C38</f>
+        <f t="shared" si="4"/>
         <v>20656</v>
       </c>
       <c r="F38">
-        <f>C38-D37</f>
+        <f t="shared" si="5"/>
         <v>3407</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1612994054357</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1612994077065</v>
       </c>
       <c r="E39">
-        <f>D39-C39</f>
+        <f t="shared" si="4"/>
         <v>22708</v>
       </c>
       <c r="F39">
-        <f>C39-D38</f>
+        <f t="shared" si="5"/>
         <v>68589</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>1612994092422</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>1612994092422</v>
       </c>
       <c r="E40">
-        <f>D40-C40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>C40-D39</f>
+        <f t="shared" si="5"/>
         <v>15357</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1612994096928</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>1612994098952</v>
       </c>
       <c r="E41">
-        <f>D41-C41</f>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="F41">
-        <f>C41-D40</f>
+        <f t="shared" si="5"/>
         <v>4506</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>1612994104348</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1612994104348</v>
       </c>
       <c r="E42">
-        <f>D42-C42</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>C42-D41</f>
+        <f t="shared" si="5"/>
         <v>5396</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1612994109746</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>1612994125718</v>
       </c>
       <c r="E43">
-        <f>D43-C43</f>
+        <f t="shared" si="4"/>
         <v>15972</v>
       </c>
       <c r="F43">
-        <f>C43-D42</f>
+        <f t="shared" si="5"/>
         <v>5398</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>1612994136164</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>1612994136164</v>
       </c>
       <c r="E44">
-        <f>D44-C44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>C44-D43</f>
+        <f t="shared" si="5"/>
         <v>10446</v>
       </c>
     </row>
@@ -2106,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A639C-C4F4-4BFC-BFE1-57BF91B18621}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2276,7 @@
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2153,33 +2304,40 @@
       <c r="J1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1612991399547</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <f>I3-I2</f>
+        <v>72993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1612991399547</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1612991409721</v>
       </c>
       <c r="E3">
-        <f>D3-C3</f>
+        <f t="shared" ref="E3:E19" si="0">D3-C3</f>
         <v>10174</v>
       </c>
       <c r="F3" t="s">
@@ -2188,504 +2346,540 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3">
-        <v>1612991440720</v>
+      <c r="I3" s="2">
+        <v>1612991472540</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1612991413185</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1612991413185</v>
       </c>
       <c r="E4">
-        <f>D4-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>C4-D3</f>
+        <f t="shared" ref="F4:F19" si="1">C4-D3</f>
         <v>3464</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>1612991477887</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <f>I5-I4</f>
+        <v>40418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1612991422538</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1612991422538</v>
       </c>
       <c r="E5">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>C5-D4</f>
+        <f t="shared" si="1"/>
         <v>9353</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>1612991518305</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1612991427002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1612991432079</v>
       </c>
       <c r="E6">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>5077</v>
       </c>
       <c r="F6">
-        <f>C6-D5</f>
+        <f t="shared" si="1"/>
         <v>4464</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1612991760852</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <f>I7-I6</f>
+        <v>31503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1612991439691</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1612991440720</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="F7">
-        <f>C7-D6</f>
+        <f t="shared" si="1"/>
         <v>7612</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1612991792355</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1612991464982</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1612991464982</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>C8-D7</f>
+        <f t="shared" si="1"/>
         <v>24262</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1612991824748</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <f>I9-I8</f>
+        <v>16746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1612991472540</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1612991472540</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>C9-D8</f>
+        <f t="shared" si="1"/>
         <v>7558</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1612991841494</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1612991477887</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1612991509535</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>31648</v>
       </c>
       <c r="F10">
-        <f>C10-D9</f>
+        <f t="shared" si="1"/>
         <v>5347</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1612991949175</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <f>I11-I10</f>
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1612991512815</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1612991518305</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>5490</v>
       </c>
       <c r="F11">
-        <f>C11-D10</f>
+        <f t="shared" si="1"/>
         <v>3280</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1612991962049</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1612991760852</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1612991773855</v>
       </c>
       <c r="E12">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>13003</v>
       </c>
       <c r="F12">
-        <f>C12-D11</f>
+        <f t="shared" si="1"/>
         <v>242547</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>1612992016543</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <f>I13-I12</f>
+        <v>18173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1612991778356</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1612991778356</v>
       </c>
       <c r="E13">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>C13-D12</f>
+        <f t="shared" si="1"/>
         <v>4501</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1612992034716</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1612991785786</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>1612991785786</v>
       </c>
       <c r="E14">
-        <f>D14-C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>C14-D13</f>
+        <f t="shared" si="1"/>
         <v>7430</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1612993150673</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <f>I15-I14</f>
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1612991791231</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1612991792355</v>
       </c>
       <c r="E15">
-        <f>D15-C15</f>
+        <f t="shared" si="0"/>
         <v>1124</v>
       </c>
       <c r="F15">
-        <f>C15-D14</f>
+        <f t="shared" si="1"/>
         <v>5445</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>1612993153604</v>
       </c>
       <c r="J15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1612991824748</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1612991841494</v>
       </c>
       <c r="E16">
-        <f>D16-C16</f>
+        <f t="shared" si="0"/>
         <v>16746</v>
       </c>
       <c r="F16">
-        <f>C16-D15</f>
+        <f t="shared" si="1"/>
         <v>32393</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>1612993195175</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="2">
+        <f>I17-I16</f>
+        <v>23085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1612991949175</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>1612991957455</v>
       </c>
       <c r="E17">
-        <f>D17-C17</f>
+        <f t="shared" si="0"/>
         <v>8280</v>
       </c>
       <c r="F17">
-        <f>C17-D16</f>
+        <f t="shared" si="1"/>
         <v>107681</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1612993218260</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1612991960871</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1612991962049</v>
       </c>
       <c r="E18">
-        <f>D18-C18</f>
+        <f t="shared" si="0"/>
         <v>1178</v>
       </c>
       <c r="F18">
-        <f>C18-D17</f>
+        <f t="shared" si="1"/>
         <v>3416</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>1612993281849</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2">
+        <f>I19-I18</f>
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1612992016543</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1612992034716</v>
       </c>
       <c r="E19">
-        <f>D19-C19</f>
+        <f t="shared" si="0"/>
         <v>18173</v>
       </c>
       <c r="F19">
-        <f>C19-D18</f>
+        <f t="shared" si="1"/>
         <v>54494</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>1612993293948</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1612993322438</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f>I21-I20</f>
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1612993150673</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1612993153604</v>
       </c>
       <c r="E21">
-        <f>D21-C21</f>
+        <f t="shared" ref="E21:E27" si="2">D21-C21</f>
         <v>2931</v>
       </c>
       <c r="F21">
@@ -2695,224 +2889,240 @@
       <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1612993336905</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1612993195175</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>1612993218260</v>
       </c>
       <c r="E22">
-        <f>D22-C22</f>
+        <f t="shared" si="2"/>
         <v>23085</v>
       </c>
       <c r="F22">
-        <f>C22-D21</f>
+        <f t="shared" ref="F22:F27" si="3">C22-D21</f>
         <v>41571</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>1612993379102</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2">
+        <f>I23-I22</f>
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>1612993281849</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1612993293948</v>
       </c>
       <c r="E23">
-        <f>D23-C23</f>
+        <f t="shared" si="2"/>
         <v>12099</v>
       </c>
       <c r="F23">
-        <f>C23-D22</f>
+        <f t="shared" si="3"/>
         <v>63589</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>1612993388215</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1612993322438</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>1612993336905</v>
       </c>
       <c r="E24">
-        <f>D24-C24</f>
+        <f t="shared" si="2"/>
         <v>14467</v>
       </c>
       <c r="F24">
-        <f>C24-D23</f>
+        <f t="shared" si="3"/>
         <v>28490</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>1612993421705</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <f>I25-I24</f>
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>1612993379102</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>1612993388215</v>
       </c>
       <c r="E25">
-        <f>D25-C25</f>
+        <f t="shared" si="2"/>
         <v>9113</v>
       </c>
       <c r="F25">
-        <f>C25-D24</f>
+        <f t="shared" si="3"/>
         <v>42197</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>1612993431027</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1612993421705</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1612993431027</v>
       </c>
       <c r="E26">
-        <f>D26-C26</f>
+        <f t="shared" si="2"/>
         <v>9322</v>
       </c>
       <c r="F26">
-        <f>C26-D25</f>
+        <f t="shared" si="3"/>
         <v>33490</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>1612993772657</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <f>I27-I26</f>
+        <v>46397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>1612993730066</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>1612993730066</v>
       </c>
       <c r="E27">
-        <f>D27-C27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>C27-D26</f>
+        <f t="shared" si="3"/>
         <v>299039</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>1612993819054</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>1612993831518</v>
       </c>
       <c r="J28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <f>I29-I28</f>
+        <v>51928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1612993772657</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1612993775811</v>
       </c>
       <c r="E29">
-        <f>D29-C29</f>
+        <f t="shared" ref="E29:E42" si="4">D29-C29</f>
         <v>3154</v>
       </c>
       <c r="F29">
@@ -2922,356 +3132,372 @@
       <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>1612993883446</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>1612993779141</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>1612993779141</v>
       </c>
       <c r="E30">
-        <f>D30-C30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>C30-D29</f>
+        <f t="shared" ref="F30:F42" si="5">C30-D29</f>
         <v>3330</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>1612993917058</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <f>I31-I30</f>
+        <v>12474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>1612993784679</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>1612993785622</v>
       </c>
       <c r="E31">
-        <f>D31-C31</f>
+        <f t="shared" si="4"/>
         <v>943</v>
       </c>
       <c r="F31">
-        <f>C31-D30</f>
+        <f t="shared" si="5"/>
         <v>5538</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>1612993929532</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>1612993801090</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>1612993815680</v>
       </c>
       <c r="E32">
-        <f>D32-C32</f>
+        <f t="shared" si="4"/>
         <v>14590</v>
       </c>
       <c r="F32">
-        <f>C32-D31</f>
+        <f t="shared" si="5"/>
         <v>15468</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>1612993958152</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <f>I33-I32</f>
+        <v>22589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1612993819054</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1612993819054</v>
       </c>
       <c r="E33">
-        <f>D33-C33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>C33-D32</f>
+        <f t="shared" si="5"/>
         <v>3374</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>1612993980741</v>
       </c>
       <c r="J33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1612993831518</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1612993832547</v>
       </c>
       <c r="E34">
-        <f>D34-C34</f>
+        <f t="shared" si="4"/>
         <v>1029</v>
       </c>
       <c r="F34">
-        <f>C34-D33</f>
+        <f t="shared" si="5"/>
         <v>12464</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>1612994057549</v>
       </c>
       <c r="J34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <f>I35-I34</f>
+        <v>15396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>1612993840966</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>1612993842279</v>
       </c>
       <c r="E35">
-        <f>D35-C35</f>
+        <f t="shared" si="4"/>
         <v>1313</v>
       </c>
       <c r="F35">
-        <f>C35-D34</f>
+        <f t="shared" si="5"/>
         <v>8419</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>1612994072945</v>
       </c>
       <c r="J35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1612993849521</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1612993859597</v>
       </c>
       <c r="E36">
-        <f>D36-C36</f>
+        <f t="shared" si="4"/>
         <v>10076</v>
       </c>
       <c r="F36">
-        <f>C36-D35</f>
+        <f t="shared" si="5"/>
         <v>7242</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>1612994112456</v>
       </c>
       <c r="J36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <f>I37-I36</f>
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1612993881026</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1612993883446</v>
       </c>
       <c r="E37">
-        <f>D37-C37</f>
+        <f t="shared" si="4"/>
         <v>2420</v>
       </c>
       <c r="F37">
-        <f>C37-D36</f>
+        <f t="shared" si="5"/>
         <v>21429</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>1612994120603</v>
       </c>
       <c r="J37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1612993917058</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1612993929532</v>
       </c>
       <c r="E38">
-        <f>D38-C38</f>
+        <f t="shared" si="4"/>
         <v>12474</v>
       </c>
       <c r="F38">
-        <f>C38-D37</f>
+        <f t="shared" si="5"/>
         <v>33612</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1612993958152</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1612993960173</v>
       </c>
       <c r="E39">
-        <f>D39-C39</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F39">
-        <f>C39-D38</f>
+        <f t="shared" si="5"/>
         <v>28620</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>1612993969706</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>1612993980741</v>
       </c>
       <c r="E40">
-        <f>D40-C40</f>
+        <f t="shared" si="4"/>
         <v>11035</v>
       </c>
       <c r="F40">
-        <f>C40-D39</f>
+        <f t="shared" si="5"/>
         <v>9533</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1612994057549</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>1612994072945</v>
       </c>
       <c r="E41">
-        <f>D41-C41</f>
+        <f t="shared" si="4"/>
         <v>15396</v>
       </c>
       <c r="F41">
-        <f>C41-D40</f>
+        <f t="shared" si="5"/>
         <v>76808</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>1612994112456</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1612994120603</v>
       </c>
       <c r="E42">
-        <f>D42-C42</f>
+        <f t="shared" si="4"/>
         <v>8147</v>
       </c>
       <c r="F42">
-        <f>C42-D41</f>
+        <f t="shared" si="5"/>
         <v>39511</v>
       </c>
       <c r="G42" t="s">
@@ -3281,4 +3507,2000 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB863490-372B-4C46-99E7-D29050CDA671}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1612991399547</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1612991398372</v>
+      </c>
+      <c r="D2">
+        <v>1.7782794</v>
+      </c>
+      <c r="E2">
+        <v>1.7782794</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7">
+        <f>ABS(B2-C2)</f>
+        <v>1175</v>
+      </c>
+      <c r="I2" s="5">
+        <f>ABS(F2-D2)</f>
+        <v>0.27827939999999995</v>
+      </c>
+      <c r="J2" s="5">
+        <f>ABS(F2-E2)</f>
+        <v>0.27827939999999995</v>
+      </c>
+      <c r="K2" s="5">
+        <f>ABS(G2-F2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="5">
+        <f>ABS(D2-G2)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M2" s="5">
+        <f>ABS(E2-G2)</f>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1612991472540</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1612991473465</v>
+      </c>
+      <c r="D3">
+        <v>1.5848932</v>
+      </c>
+      <c r="E3">
+        <v>1.5848932</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H13" si="0">ABS(B3-C3)</f>
+        <v>925</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I13" si="1">ABS(F3-D3)</f>
+        <v>0.4151068</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J13" si="2">ABS(F3-E3)</f>
+        <v>0.4151068</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K13" si="3">ABS(G3-F3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L13" si="4">ABS(D3-G3)</f>
+        <v>0.4151068</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M13" si="5">ABS(E3-G3)</f>
+        <v>0.4151068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1612991477887</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1612991477888</v>
+      </c>
+      <c r="D4">
+        <v>1.5848932</v>
+      </c>
+      <c r="E4">
+        <v>1.4125376000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5106800000000087E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18746240000000003</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.4151068</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="5"/>
+        <v>0.58746239999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1612991518305</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1612991523564</v>
+      </c>
+      <c r="D5">
+        <v>1.5848932</v>
+      </c>
+      <c r="E5">
+        <v>1.7782794</v>
+      </c>
+      <c r="F5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>5259</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.71510679999999982</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52172059999999987</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.4151068</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1612991760852</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1612991761375</v>
+      </c>
+      <c r="D6">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.1220185</v>
+      </c>
+      <c r="F6">
+        <v>1.25</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>8.9254000000000833E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12798149999999997</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="5"/>
+        <v>0.37798149999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1612991792355</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1612991804456</v>
+      </c>
+      <c r="D7">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>12101</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.74107459999999992</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.74107459999999992</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1612991824748</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1612991823073</v>
+      </c>
+      <c r="D8">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1675</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35892540000000006</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35892540000000006</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1612991841494</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1612991849177</v>
+      </c>
+      <c r="D9">
+        <v>1.1220185</v>
+      </c>
+      <c r="E9">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.6</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>7683</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47798150000000006</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34107460000000001</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.37798149999999997</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="5"/>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1612991949175</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1612991947498</v>
+      </c>
+      <c r="D10">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1677</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29125089999999998</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.29125089999999998</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="5"/>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1612991962049</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1612991973869</v>
+      </c>
+      <c r="D11">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>11820</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40874910000000009</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5056718</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="5"/>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1612992016543</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1612992016487</v>
+      </c>
+      <c r="D12">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7491000000000652E-3</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19205424000000004</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="5"/>
+        <v>0.29205424000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1612992034716</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1612992033677</v>
+      </c>
+      <c r="D13">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F13">
+        <v>1.4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1039</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.50874909999999995</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50874909999999995</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="5"/>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="6">
+        <f>AVERAGE(H2:H13)</f>
+        <v>3661.1666666666665</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:M14" si="6">AVERAGE(I2:I13)</f>
+        <v>0.3523337416666667</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.37244594499999994</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.3208333333333333</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.2502702249999999</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.27186999500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="6">
+        <f>_xlfn.STDEV.S(H2:H13)</f>
+        <v>4484.2437861174913</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15:M15" si="7">_xlfn.STDEV.S(I2:I13)</f>
+        <v>0.25028353632740191</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.17567209095408198</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.18272972258270273</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.12756642977660465</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.13391192836056198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1612993150673</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1612993147563</v>
+      </c>
+      <c r="D17">
+        <v>1.7782794</v>
+      </c>
+      <c r="E17">
+        <v>1.5848932</v>
+      </c>
+      <c r="F17">
+        <v>1.7</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <f>ABS(B17-C17)</f>
+        <v>3110</v>
+      </c>
+      <c r="I17" s="5">
+        <f>ABS(F17-D17)</f>
+        <v>7.8279399999999999E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <f>ABS(F17-E17)</f>
+        <v>0.11510679999999995</v>
+      </c>
+      <c r="K17" s="5">
+        <f>ABS(G17-F17)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L17" s="5">
+        <f>ABS(D17-G17)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M17" s="5">
+        <f>ABS(E17-G17)</f>
+        <v>0.4151068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1612993153604</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1612993173928</v>
+      </c>
+      <c r="D18">
+        <v>1.7782794</v>
+      </c>
+      <c r="E18">
+        <v>1.5848932</v>
+      </c>
+      <c r="F18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7">
+        <f>ABS(B18-C18)</f>
+        <v>20324</v>
+      </c>
+      <c r="I18" s="5">
+        <f>ABS(F18-D18)</f>
+        <v>0.52172059999999987</v>
+      </c>
+      <c r="J18" s="5">
+        <f>ABS(F18-E18)</f>
+        <v>0.71510679999999982</v>
+      </c>
+      <c r="K18" s="5">
+        <f>ABS(G18-F18)</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="L18" s="5">
+        <f>ABS(D18-G18)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M18" s="5">
+        <f>ABS(E18-G18)</f>
+        <v>0.4151068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1612993195175</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1612993192101</v>
+      </c>
+      <c r="D19">
+        <v>1.7782794</v>
+      </c>
+      <c r="E19">
+        <v>1.7782794</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <f>ABS(B19-C19)</f>
+        <v>3074</v>
+      </c>
+      <c r="I19" s="5">
+        <f>ABS(F19-D19)</f>
+        <v>1.4782793999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <f>ABS(F19-E19)</f>
+        <v>1.4782793999999999</v>
+      </c>
+      <c r="K19" s="5">
+        <f>ABS(G19-F19)</f>
+        <v>1.7</v>
+      </c>
+      <c r="L19" s="5">
+        <f>ABS(D19-G19)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M19" s="5">
+        <f>ABS(E19-G19)</f>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1612993218260</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1612993227263</v>
+      </c>
+      <c r="D20">
+        <v>1.7782794</v>
+      </c>
+      <c r="E20">
+        <v>1.5848932</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <f>ABS(B20-C20)</f>
+        <v>9003</v>
+      </c>
+      <c r="I20" s="5">
+        <f>ABS(F20-D20)</f>
+        <v>1.2217206</v>
+      </c>
+      <c r="J20" s="5">
+        <f>ABS(F20-E20)</f>
+        <v>1.4151068</v>
+      </c>
+      <c r="K20" s="5">
+        <f>ABS(G20-F20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <f>ABS(D20-G20)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M20" s="5">
+        <f>ABS(E20-G20)</f>
+        <v>0.4151068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1612993281849</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1612993275680</v>
+      </c>
+      <c r="D21">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="7">
+        <f>ABS(B21-C21)</f>
+        <v>6169</v>
+      </c>
+      <c r="I21" s="5">
+        <f>ABS(F21-D21)</f>
+        <v>0.35892540000000006</v>
+      </c>
+      <c r="J21" s="5">
+        <f>ABS(F21-E21)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <f>ABS(G21-F21)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="5">
+        <f>ABS(D21-G21)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M21" s="5">
+        <f>ABS(E21-G21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1612993293948</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1612993293986</v>
+      </c>
+      <c r="D22">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="7">
+        <f>ABS(B22-C22)</f>
+        <v>38</v>
+      </c>
+      <c r="I22" s="5">
+        <f>ABS(F22-D22)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="J22" s="5">
+        <f>ABS(F22-E22)</f>
+        <v>0.60874910000000004</v>
+      </c>
+      <c r="K22" s="5">
+        <f>ABS(G22-F22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <f>ABS(D22-G22)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M22" s="5">
+        <f>ABS(E22-G22)</f>
+        <v>0.60874910000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1612993322438</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1612993318833</v>
+      </c>
+      <c r="D23">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.1220185</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="7">
+        <f>ABS(B23-C23)</f>
+        <v>3605</v>
+      </c>
+      <c r="I23" s="5">
+        <f>ABS(F23-D23)</f>
+        <v>0.85892540000000006</v>
+      </c>
+      <c r="J23" s="5">
+        <f>ABS(F23-E23)</f>
+        <v>0.72201850000000001</v>
+      </c>
+      <c r="K23" s="5">
+        <f>ABS(G23-F23)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23" s="5">
+        <f>ABS(D23-G23)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M23" s="5">
+        <f>ABS(E23-G23)</f>
+        <v>0.37798149999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1612993336905</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1612993337867</v>
+      </c>
+      <c r="D24">
+        <v>1.1220185</v>
+      </c>
+      <c r="E24">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F24">
+        <v>2.1</v>
+      </c>
+      <c r="G24">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="7">
+        <f>ABS(B24-C24)</f>
+        <v>962</v>
+      </c>
+      <c r="I24" s="5">
+        <f>ABS(F24-D24)</f>
+        <v>0.97798150000000006</v>
+      </c>
+      <c r="J24" s="5">
+        <f>ABS(F24-E24)</f>
+        <v>1.2087491000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <f>ABS(G24-F24)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L24" s="5">
+        <f>ABS(D24-G24)</f>
+        <v>0.37798149999999997</v>
+      </c>
+      <c r="M24" s="5">
+        <f>ABS(E24-G24)</f>
+        <v>0.60874910000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1612993379102</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1612993376433</v>
+      </c>
+      <c r="D25">
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <f>ABS(B25-C25)</f>
+        <v>2669</v>
+      </c>
+      <c r="I25" s="5">
+        <f>ABS(F25-D25)</f>
+        <v>0.20794575999999998</v>
+      </c>
+      <c r="J25" s="5">
+        <f>ABS(F25-E25)</f>
+        <v>0.29432820000000004</v>
+      </c>
+      <c r="K25" s="5">
+        <f>ABS(G25-F25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="5">
+        <f>ABS(D25-G25)</f>
+        <v>0.29205424000000002</v>
+      </c>
+      <c r="M25" s="5">
+        <f>ABS(E25-G25)</f>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1612993388215</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1612993394570</v>
+      </c>
+      <c r="D26">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F26">
+        <v>1.3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <f>ABS(B26-C26)</f>
+        <v>6355</v>
+      </c>
+      <c r="I26" s="5">
+        <f>ABS(F26-D26)</f>
+        <v>0.5056718</v>
+      </c>
+      <c r="J26" s="5">
+        <f>ABS(F26-E26)</f>
+        <v>0.40874910000000009</v>
+      </c>
+      <c r="K26" s="5">
+        <f>ABS(G26-F26)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L26" s="5">
+        <f>ABS(D26-G26)</f>
+        <v>0.20567179999999996</v>
+      </c>
+      <c r="M26" s="5">
+        <f>ABS(E26-G26)</f>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1612993421705</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1612993421026</v>
+      </c>
+      <c r="D27">
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.63095736999999996</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <f>ABS(B27-C27)</f>
+        <v>679</v>
+      </c>
+      <c r="I27" s="5">
+        <f>ABS(F27-D27)</f>
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="J27" s="5">
+        <f>ABS(F27-E27)</f>
+        <v>0.63095736999999996</v>
+      </c>
+      <c r="K27" s="5">
+        <f>ABS(G27-F27)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <f>ABS(D27-G27)</f>
+        <v>0.29205424000000002</v>
+      </c>
+      <c r="M27" s="5">
+        <f>ABS(E27-G27)</f>
+        <v>0.36904263000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1612993431027</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1612993433217</v>
+      </c>
+      <c r="D28">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <f>ABS(B28-C28)</f>
+        <v>2190</v>
+      </c>
+      <c r="I28" s="5">
+        <f>ABS(F28-D28)</f>
+        <v>0.40567179999999992</v>
+      </c>
+      <c r="J28" s="5">
+        <f>ABS(F28-E28)</f>
+        <v>0.3087491</v>
+      </c>
+      <c r="K28" s="5">
+        <f>ABS(G28-F28)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L28" s="5">
+        <f>ABS(D28-G28)</f>
+        <v>0.20567179999999996</v>
+      </c>
+      <c r="M28" s="5">
+        <f>ABS(E28-G28)</f>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="6">
+        <f>AVERAGE(H17:H28)</f>
+        <v>4848.166666666667</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29" si="8">AVERAGE(I17:I28)</f>
+        <v>0.63034516833333332</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" ref="J29" si="9">AVERAGE(J17:J28)</f>
+        <v>0.66715835583333349</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" ref="K29" si="10">AVERAGE(K17:K28)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" ref="L29" si="11">AVERAGE(L17:L28)</f>
+        <v>0.24862831500000002</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29" si="12">AVERAGE(M17:M28)</f>
+        <v>0.36289444416666661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="6">
+        <f>_xlfn.STDEV.S(H17:H28)</f>
+        <v>5526.2195006800966</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30:M30" si="13">_xlfn.STDEV.S(I17:I28)</f>
+        <v>0.43001671874849723</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47495071351976609</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="13"/>
+        <v>0.48304589153964794</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="13"/>
+        <v>4.9782864058679446E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="13"/>
+        <v>0.17108198269110636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1612993772657</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1612993769733</v>
+      </c>
+      <c r="D32">
+        <v>1.5848932</v>
+      </c>
+      <c r="E32">
+        <v>1.5848932</v>
+      </c>
+      <c r="F32">
+        <v>1.6</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7">
+        <f>ABS(B32-C32)</f>
+        <v>2924</v>
+      </c>
+      <c r="I32" s="5">
+        <f>ABS(F32-D32)</f>
+        <v>1.5106800000000087E-2</v>
+      </c>
+      <c r="J32" s="5">
+        <f>ABS(F32-E32)</f>
+        <v>1.5106800000000087E-2</v>
+      </c>
+      <c r="K32" s="5">
+        <f>ABS(G32-F32)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L32" s="5">
+        <f>ABS(D32-G32)</f>
+        <v>0.4151068</v>
+      </c>
+      <c r="M32" s="5">
+        <f>ABS(E32-G32)</f>
+        <v>0.4151068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1612993819054</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1612993820804</v>
+      </c>
+      <c r="D33">
+        <v>1.7782794</v>
+      </c>
+      <c r="E33">
+        <v>1.7782794</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7">
+        <f>ABS(B33-C33)</f>
+        <v>1750</v>
+      </c>
+      <c r="I33" s="5">
+        <f>ABS(F33-D33)</f>
+        <v>1.2217206</v>
+      </c>
+      <c r="J33" s="5">
+        <f>ABS(F33-E33)</f>
+        <v>1.2217206</v>
+      </c>
+      <c r="K33" s="5">
+        <f>ABS(G33-F33)</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <f>ABS(D33-G33)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M33" s="5">
+        <f>ABS(E33-G33)</f>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1612993831518</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1612993830525</v>
+      </c>
+      <c r="D34">
+        <v>1.7782794</v>
+      </c>
+      <c r="E34">
+        <v>1.7782794</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" s="7">
+        <f>ABS(B34-C34)</f>
+        <v>993</v>
+      </c>
+      <c r="I34" s="5">
+        <f>ABS(F34-D34)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="J34" s="5">
+        <f>ABS(F34-E34)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="K34" s="5">
+        <f>ABS(G34-F34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <f>ABS(D34-G34)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M34" s="5">
+        <f>ABS(E34-G34)</f>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1612993883446</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1612993859646</v>
+      </c>
+      <c r="D35">
+        <v>1.7782794</v>
+      </c>
+      <c r="E35">
+        <v>1.7782794</v>
+      </c>
+      <c r="F35">
+        <v>2.9</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7">
+        <f>ABS(B35-C35)</f>
+        <v>23800</v>
+      </c>
+      <c r="I35" s="5">
+        <f>ABS(F35-D35)</f>
+        <v>1.1217206</v>
+      </c>
+      <c r="J35" s="5">
+        <f>ABS(F35-E35)</f>
+        <v>1.1217206</v>
+      </c>
+      <c r="K35" s="5">
+        <f>ABS(G35-F35)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L35" s="5">
+        <f>ABS(D35-G35)</f>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M35" s="5">
+        <f>ABS(E35-G35)</f>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1612993917058</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1612993914186</v>
+      </c>
+      <c r="D36">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="7">
+        <f>ABS(B36-C36)</f>
+        <v>2872</v>
+      </c>
+      <c r="I36" s="5">
+        <f>ABS(F36-D36)</f>
+        <v>0.15892539999999999</v>
+      </c>
+      <c r="J36" s="5">
+        <f>ABS(F36-E36)</f>
+        <v>0.15892539999999999</v>
+      </c>
+      <c r="K36" s="5">
+        <f>ABS(G36-F36)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L36" s="5">
+        <f>ABS(D36-G36)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M36" s="5">
+        <f>ABS(E36-G36)</f>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1612993929532</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1612993937666</v>
+      </c>
+      <c r="D37">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E37">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G37">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="7">
+        <f>ABS(B37-C37)</f>
+        <v>8134</v>
+      </c>
+      <c r="I37" s="5">
+        <f>ABS(F37-D37)</f>
+        <v>1.0410745999999997</v>
+      </c>
+      <c r="J37" s="5">
+        <f>ABS(F37-E37)</f>
+        <v>1.0410745999999997</v>
+      </c>
+      <c r="K37" s="5">
+        <f>ABS(G37-F37)</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="L37" s="5">
+        <f>ABS(D37-G37)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M37" s="5">
+        <f>ABS(E37-G37)</f>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1612993958152</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1612993959401</v>
+      </c>
+      <c r="D38">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E38">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.7</v>
+      </c>
+      <c r="G38">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="7">
+        <f>ABS(B38-C38)</f>
+        <v>1249</v>
+      </c>
+      <c r="I38" s="5">
+        <f>ABS(F38-D38)</f>
+        <v>0.55892540000000013</v>
+      </c>
+      <c r="J38" s="5">
+        <f>ABS(F38-E38)</f>
+        <v>0.55892540000000013</v>
+      </c>
+      <c r="K38" s="5">
+        <f>ABS(G38-F38)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="5">
+        <f>ABS(D38-G38)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M38" s="5">
+        <f>ABS(E38-G38)</f>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1612993980741</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1612993985768</v>
+      </c>
+      <c r="D39">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E39">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.3</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="7">
+        <f>ABS(B39-C39)</f>
+        <v>5027</v>
+      </c>
+      <c r="I39" s="5">
+        <f>ABS(F39-D39)</f>
+        <v>4.1074599999999961E-2</v>
+      </c>
+      <c r="J39" s="5">
+        <f>ABS(F39-E39)</f>
+        <v>4.1074599999999961E-2</v>
+      </c>
+      <c r="K39" s="5">
+        <f>ABS(G39-F39)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L39" s="5">
+        <f>ABS(D39-G39)</f>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M39" s="5">
+        <f>ABS(E39-G39)</f>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1612994057549</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1612994054357</v>
+      </c>
+      <c r="D40">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E40">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F40">
+        <v>0.9</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <f>ABS(B40-C40)</f>
+        <v>3192</v>
+      </c>
+      <c r="I40" s="5">
+        <f>ABS(F40-D40)</f>
+        <v>8.7491000000000652E-3</v>
+      </c>
+      <c r="J40" s="5">
+        <f>ABS(F40-E40)</f>
+        <v>8.7491000000000652E-3</v>
+      </c>
+      <c r="K40" s="5">
+        <f>ABS(G40-F40)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L40" s="5">
+        <f>ABS(D40-G40)</f>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M40" s="5">
+        <f>ABS(E40-G40)</f>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1612994072945</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1612994077065</v>
+      </c>
+      <c r="D41">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E41">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="F41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <f>ABS(B41-C41)</f>
+        <v>4120</v>
+      </c>
+      <c r="I41" s="5">
+        <f>ABS(F41-D41)</f>
+        <v>1.4087490999999999</v>
+      </c>
+      <c r="J41" s="5">
+        <f>ABS(F41-E41)</f>
+        <v>1.5056717999999998</v>
+      </c>
+      <c r="K41" s="5">
+        <f>ABS(G41-F41)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="L41" s="5">
+        <f>ABS(D41-G41)</f>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M41" s="5">
+        <f>ABS(E41-G41)</f>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1612994112456</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1612994096928</v>
+      </c>
+      <c r="D42">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <f>ABS(B42-C42)</f>
+        <v>15528</v>
+      </c>
+      <c r="I42" s="5">
+        <f>ABS(F42-D42)</f>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="J42" s="5">
+        <f>ABS(F42-E42)</f>
+        <v>0.20567179999999996</v>
+      </c>
+      <c r="K42" s="5">
+        <f>ABS(G42-F42)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f>ABS(D42-G42)</f>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M42" s="5">
+        <f>ABS(E42-G42)</f>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1612994120603</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1612994125718</v>
+      </c>
+      <c r="D43">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E43">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <f>ABS(B43-C43)</f>
+        <v>5115</v>
+      </c>
+      <c r="I43" s="5">
+        <f>ABS(F43-D43)</f>
+        <v>1.1087491</v>
+      </c>
+      <c r="J43" s="5">
+        <f>ABS(F43-E43)</f>
+        <v>1.1087491</v>
+      </c>
+      <c r="K43" s="5">
+        <f>ABS(G43-F43)</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="5">
+        <f>ABS(D43-G43)</f>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M43" s="5">
+        <f>ABS(E43-G43)</f>
+        <v>0.10874910000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="6">
+        <f>AVERAGE(H32:H43)</f>
+        <v>6225.333333333333</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" ref="I44" si="14">AVERAGE(I32:I43)</f>
+        <v>0.58460541666666666</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" ref="J44" si="15">AVERAGE(J32:J43)</f>
+        <v>0.60075920000000005</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" ref="K44" si="16">AVERAGE(K32:K43)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" ref="L44" si="17">AVERAGE(L32:L43)</f>
+        <v>0.20663028333333325</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" ref="M44" si="18">AVERAGE(M32:M43)</f>
+        <v>0.22278406666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="6">
+        <f>_xlfn.STDEV.S(H32:H43)</f>
+        <v>6806.8639599816424</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" ref="I45:M45" si="19">_xlfn.STDEV.S(I32:I43)</f>
+        <v>0.55169692672295723</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="19"/>
+        <v>0.55850735124781714</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="19"/>
+        <v>0.44543135375621107</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="19"/>
+        <v>8.9042461259291772E-2</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="19"/>
+        <v>7.6825189799846538E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="6">
+        <f>AVERAGE(H2:H13,H17:H28,H32:H43)</f>
+        <v>4911.5555555555557</v>
+      </c>
+      <c r="I47" s="6">
+        <f>AVERAGE(I2:I13,I17:I28,I32:I43)</f>
+        <v>0.52242810888888902</v>
+      </c>
+      <c r="J47" s="6">
+        <f>AVERAGE(J2:J13,J17:J28,J32:J43)</f>
+        <v>0.54678783361111094</v>
+      </c>
+      <c r="K47" s="6">
+        <f>AVERAGE(K2:K13,K17:K28,K32:K43)</f>
+        <v>0.5097222222222223</v>
+      </c>
+      <c r="L47" s="6">
+        <f>AVERAGE(L2:L13,L17:L28,L32:L43)</f>
+        <v>0.23517627444444456</v>
+      </c>
+      <c r="M47" s="6">
+        <f>AVERAGE(M2:M13,M17:M28,M32:M43)</f>
+        <v>0.28584950194444431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="4">
+        <f>_xlfn.STDEV.P(H2:H13,H17:H28,H32:H43)</f>
+        <v>5543.5457588304362</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" ref="I48:M48" si="20">_xlfn.STDEV.P(I2:I13,I17:I28,I32:I43)</f>
+        <v>0.4283207981971543</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="20"/>
+        <v>0.43543169380556263</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="20"/>
+        <v>0.40066254927939249</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="20"/>
+        <v>9.2520997962081394E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="20"/>
+        <v>0.13998435795260866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/processed/main_experiment_results.xlsx
+++ b/data/processed/main_experiment_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7588F8F-0F74-4C20-AE71-4E8D7063C6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9963630A-D209-4CC0-A54D-077F325BE7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
+    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical" sheetId="1" r:id="rId1"/>
     <sheet name="Participant B - Device" sheetId="2" r:id="rId2"/>
     <sheet name="Participant A - Device" sheetId="3" r:id="rId3"/>
     <sheet name="Results" sheetId="4" r:id="rId4"/>
+    <sheet name="Clustered Bar Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="98">
   <si>
     <t>Living Room</t>
   </si>
@@ -304,6 +305,33 @@
   </si>
   <si>
     <t>Overall STD</t>
+  </si>
+  <si>
+    <t>1.5m</t>
+  </si>
+  <si>
+    <t>1.0m</t>
+  </si>
+  <si>
+    <t>2.0m</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Hallway Median</t>
+  </si>
+  <si>
+    <t>Garden Median</t>
+  </si>
+  <si>
+    <t>Living Room Median</t>
   </si>
 </sst>
 </file>
@@ -347,19 +375,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +404,2643 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Timing Difference Between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Devices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Living Room</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$G$2:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2334.5900425270956</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5408.0114336664146</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5488.6479816678593</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4484.2437861174913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$G$2:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2334.5900425270956</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5408.0114336664146</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5488.6479816678593</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4484.2437861174913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5495.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3648</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3661.1666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F246-4304-AE87-47D77F92B7B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Garden</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$H$2:$H$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8123.6851397626187</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2766.4480837348096</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2408.7247490459899</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5526.2195006800966</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$H$2:$H$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8123.6851397626187</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2766.4480837348096</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2408.7247490459899</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5526.2195006800966</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8877.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2693.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2973.25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4848.166666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F246-4304-AE87-47D77F92B7B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hallway</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>10984.266061811626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2976.2498215035644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5746.7314405668894</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6806.8639599816424</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>10984.266061811626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2976.2498215035644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5746.7314405668894</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6806.8639599816424</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7366.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4320.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6988.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6225.333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F246-4304-AE87-47D77F92B7B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1847356384"/>
+        <c:axId val="1847354720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1847356384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847354720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1847354720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time taken: Lower is better (milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847356384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Timing Difference Between Devices At</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Expected Distances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Clustered by Area</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$U$2:$U$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2334.5900425270956</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8123.6851397626187</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10984.266061811626</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7897.6791623561894</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$U$2:$U$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2334.5900425270956</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8123.6851397626187</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10984.266061811626</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7897.6791623561894</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$O$2:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Living Room</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Garden</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallway</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8877.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7366.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6028.166666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B2-42AB-8B2F-13FB0500F8F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$V$2:$V$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5408.0114336664146</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2766.4480837348096</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2976.2498215035644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3730.8574162792743</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$V$2:$V$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5408.0114336664146</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2766.4480837348096</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2976.2498215035644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3730.8574162792743</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$O$2:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Living Room</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Garden</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallway</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5495.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2693.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4320.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4169.833333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1B2-42AB-8B2F-13FB0500F8F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$W$2:$W$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5488.6479816678593</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2408.7247490459899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5746.7314405668894</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4708.2447285843609</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Clustered Bar Chart'!$W$2:$W$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5488.6479816678593</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2408.7247490459899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5746.7314405668894</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4708.2447285843609</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Clustered Bar Chart'!$O$2:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Living Room</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Garden</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallway</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Clustered Bar Chart'!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2973.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6988.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4536.666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1B2-42AB-8B2F-13FB0500F8F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="143799232"/>
+        <c:axId val="143796320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="143799232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143796320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143796320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Time taken: Lower is better (milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143799232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAEF761-A1A4-40F8-AB1F-06770653AC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4043FE9-95FF-414D-97C7-AE51FB882813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,12 +3360,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -786,12 +3452,12 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -864,12 +3530,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3511,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB863490-372B-4C46-99E7-D29050CDA671}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H15" sqref="H15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,43 +6201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3597,27 +6263,27 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>ABS(B2-C2)</f>
         <v>1175</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>ABS(F2-D2)</f>
         <v>0.27827939999999995</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>ABS(F2-E2)</f>
         <v>0.27827939999999995</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>ABS(G2-F2)</f>
         <v>0.5</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>ABS(D2-G2)</f>
         <v>0.22172060000000005</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>ABS(E2-G2)</f>
         <v>0.22172060000000005</v>
       </c>
@@ -3644,27 +6310,27 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H13" si="0">ABS(B3-C3)</f>
         <v>925</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I13" si="1">ABS(F3-D3)</f>
         <v>0.4151068</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J13" si="2">ABS(F3-E3)</f>
         <v>0.4151068</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K13" si="3">ABS(G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L13" si="4">ABS(D3-G3)</f>
         <v>0.4151068</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M13" si="5">ABS(E3-G3)</f>
         <v>0.4151068</v>
       </c>
@@ -3691,27 +6357,27 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>1.5106800000000087E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
         <v>0.18746240000000003</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="4"/>
         <v>0.4151068</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="5"/>
         <v>0.58746239999999994</v>
       </c>
@@ -3738,27 +6404,27 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>5259</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>0.71510679999999982</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0.52172059999999987</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="4"/>
         <v>0.4151068</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="5"/>
         <v>0.22172060000000005</v>
       </c>
@@ -3785,27 +6451,27 @@
       <c r="G6">
         <v>1.5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>8.9254000000000833E-3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="2"/>
         <v>0.12798149999999997</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="5"/>
         <v>0.37798149999999997</v>
       </c>
@@ -3832,27 +6498,27 @@
       <c r="G7">
         <v>1.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>12101</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0.74107459999999992</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>0.74107459999999992</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="4"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="5"/>
         <v>0.24107459999999992</v>
       </c>
@@ -3879,27 +6545,27 @@
       <c r="G8">
         <v>1.5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>0.35892540000000006</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="2"/>
         <v>0.35892540000000006</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="4"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="5"/>
         <v>0.24107459999999992</v>
       </c>
@@ -3926,27 +6592,27 @@
       <c r="G9">
         <v>1.5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>7683</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0.47798150000000006</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="2"/>
         <v>0.34107460000000001</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="4"/>
         <v>0.37798149999999997</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="5"/>
         <v>0.24107459999999992</v>
       </c>
@@ -3973,27 +6639,27 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>1677</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>0.29125089999999998</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="2"/>
         <v>0.29125089999999998</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="4"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="5"/>
         <v>0.10874910000000004</v>
       </c>
@@ -4020,27 +6686,27 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>11820</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>0.40874910000000009</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="2"/>
         <v>0.5056718</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="4"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="5"/>
         <v>0.20567179999999996</v>
       </c>
@@ -4067,27 +6733,27 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>8.7491000000000652E-3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="2"/>
         <v>0.19205424000000004</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f t="shared" si="3"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f t="shared" si="4"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="5"/>
         <v>0.29205424000000002</v>
       </c>
@@ -4114,145 +6780,127 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>0.50874909999999995</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="2"/>
         <v>0.50874909999999995</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="4"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="5"/>
         <v>0.10874910000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f>AVERAGE(H2:H13)</f>
         <v>3661.1666666666665</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" ref="I14:M14" si="6">AVERAGE(I2:I13)</f>
         <v>0.3523337416666667</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="6"/>
         <v>0.37244594499999994</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="6"/>
         <v>0.3208333333333333</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="6"/>
         <v>0.2502702249999999</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <f t="shared" si="6"/>
         <v>0.27186999500000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5">
+        <f>MEDIAN(H2:H13)</f>
+        <v>1425</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15:M15" si="7">MEDIAN(I2:I13)</f>
+        <v>0.38383725000000007</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.24107459999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="5">
         <f>_xlfn.STDEV.S(H2:H13)</f>
         <v>4484.2437861174913</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" ref="I15:M15" si="7">_xlfn.STDEV.S(I2:I13)</f>
+      <c r="I16" s="5">
+        <f t="shared" ref="I16:M16" si="8">_xlfn.STDEV.S(I2:I13)</f>
         <v>0.25028353632740191</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="7"/>
+      <c r="J16" s="5">
+        <f t="shared" si="8"/>
         <v>0.17567209095408198</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="7"/>
+      <c r="K16" s="5">
+        <f t="shared" si="8"/>
         <v>0.18272972258270273</v>
       </c>
-      <c r="L15" s="6">
-        <f t="shared" si="7"/>
+      <c r="L16" s="5">
+        <f t="shared" si="8"/>
         <v>0.12756642977660465</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="7"/>
+      <c r="M16" s="5">
+        <f t="shared" si="8"/>
         <v>0.13391192836056198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1612993150673</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1612993147563</v>
-      </c>
-      <c r="D17">
-        <v>1.7782794</v>
-      </c>
-      <c r="E17">
-        <v>1.5848932</v>
-      </c>
-      <c r="F17">
-        <v>1.7</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <f>ABS(B17-C17)</f>
-        <v>3110</v>
-      </c>
-      <c r="I17" s="5">
-        <f>ABS(F17-D17)</f>
-        <v>7.8279399999999999E-2</v>
-      </c>
-      <c r="J17" s="5">
-        <f>ABS(F17-E17)</f>
-        <v>0.11510679999999995</v>
-      </c>
-      <c r="K17" s="5">
-        <f>ABS(G17-F17)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L17" s="5">
-        <f>ABS(D17-G17)</f>
-        <v>0.22172060000000005</v>
-      </c>
-      <c r="M17" s="5">
-        <f>ABS(E17-G17)</f>
-        <v>0.4151068</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>1612993153604</v>
+        <v>1612993150673</v>
       </c>
       <c r="C18" s="2">
-        <v>1612993173928</v>
+        <v>1612993147563</v>
       </c>
       <c r="D18">
         <v>1.7782794</v>
@@ -4261,714 +6909,696 @@
         <v>1.5848932</v>
       </c>
       <c r="F18">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="7">
-        <f>ABS(B18-C18)</f>
-        <v>20324</v>
-      </c>
-      <c r="I18" s="5">
-        <f>ABS(F18-D18)</f>
-        <v>0.52172059999999987</v>
-      </c>
-      <c r="J18" s="5">
-        <f>ABS(F18-E18)</f>
-        <v>0.71510679999999982</v>
-      </c>
-      <c r="K18" s="5">
-        <f>ABS(G18-F18)</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="L18" s="5">
-        <f>ABS(D18-G18)</f>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18:H29" si="9">ABS(B18-C18)</f>
+        <v>3110</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" ref="I18:I29" si="10">ABS(F18-D18)</f>
+        <v>7.8279399999999999E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" ref="J18:J29" si="11">ABS(F18-E18)</f>
+        <v>0.11510679999999995</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" ref="K18:K29" si="12">ABS(G18-F18)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" ref="L18:L29" si="13">ABS(D18-G18)</f>
         <v>0.22172060000000005</v>
       </c>
-      <c r="M18" s="5">
-        <f>ABS(E18-G18)</f>
+      <c r="M18" s="4">
+        <f t="shared" ref="M18:M29" si="14">ABS(E18-G18)</f>
         <v>0.4151068</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>1612993195175</v>
+        <v>1612993153604</v>
       </c>
       <c r="C19" s="2">
-        <v>1612993192101</v>
+        <v>1612993173928</v>
       </c>
       <c r="D19">
         <v>1.7782794</v>
       </c>
       <c r="E19">
-        <v>1.7782794</v>
+        <v>1.5848932</v>
       </c>
       <c r="F19">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="7">
-        <f>ABS(B19-C19)</f>
-        <v>3074</v>
-      </c>
-      <c r="I19" s="5">
-        <f>ABS(F19-D19)</f>
-        <v>1.4782793999999999</v>
-      </c>
-      <c r="J19" s="5">
-        <f>ABS(F19-E19)</f>
-        <v>1.4782793999999999</v>
-      </c>
-      <c r="K19" s="5">
-        <f>ABS(G19-F19)</f>
-        <v>1.7</v>
-      </c>
-      <c r="L19" s="5">
-        <f>ABS(D19-G19)</f>
+      <c r="H19" s="6">
+        <f t="shared" si="9"/>
+        <v>20324</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.52172059999999987</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="11"/>
+        <v>0.71510679999999982</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="12"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="13"/>
         <v>0.22172060000000005</v>
       </c>
-      <c r="M19" s="5">
-        <f>ABS(E19-G19)</f>
-        <v>0.22172060000000005</v>
+      <c r="M19" s="4">
+        <f t="shared" si="14"/>
+        <v>0.4151068</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
-        <v>1612993218260</v>
+        <v>1612993195175</v>
       </c>
       <c r="C20" s="2">
-        <v>1612993227263</v>
+        <v>1612993192101</v>
       </c>
       <c r="D20">
         <v>1.7782794</v>
       </c>
       <c r="E20">
-        <v>1.5848932</v>
+        <v>1.7782794</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="7">
-        <f>ABS(B20-C20)</f>
-        <v>9003</v>
-      </c>
-      <c r="I20" s="5">
-        <f>ABS(F20-D20)</f>
-        <v>1.2217206</v>
-      </c>
-      <c r="J20" s="5">
-        <f>ABS(F20-E20)</f>
-        <v>1.4151068</v>
-      </c>
-      <c r="K20" s="5">
-        <f>ABS(G20-F20)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <f>ABS(D20-G20)</f>
+      <c r="H20" s="6">
+        <f t="shared" si="9"/>
+        <v>3074</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="10"/>
+        <v>1.4782793999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4782793999999999</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="12"/>
+        <v>1.7</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="13"/>
         <v>0.22172060000000005</v>
       </c>
-      <c r="M20" s="5">
-        <f>ABS(E20-G20)</f>
-        <v>0.4151068</v>
+      <c r="M20" s="4">
+        <f t="shared" si="14"/>
+        <v>0.22172060000000005</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>1612993281849</v>
+        <v>1612993218260</v>
       </c>
       <c r="C21" s="2">
-        <v>1612993275680</v>
+        <v>1612993227263</v>
       </c>
       <c r="D21">
-        <v>1.2589254000000001</v>
+        <v>1.7782794</v>
       </c>
       <c r="E21">
+        <v>1.5848932</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="9"/>
+        <v>9003</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2217206</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4151068</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>0.9</v>
-      </c>
-      <c r="G21">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="7">
-        <f>ABS(B21-C21)</f>
-        <v>6169</v>
-      </c>
-      <c r="I21" s="5">
-        <f>ABS(F21-D21)</f>
-        <v>0.35892540000000006</v>
-      </c>
-      <c r="J21" s="5">
-        <f>ABS(F21-E21)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="K21" s="5">
-        <f>ABS(G21-F21)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L21" s="5">
-        <f>ABS(D21-G21)</f>
-        <v>0.24107459999999992</v>
-      </c>
-      <c r="M21" s="5">
-        <f>ABS(E21-G21)</f>
-        <v>0.5</v>
+      <c r="L21" s="4">
+        <f t="shared" si="13"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="14"/>
+        <v>0.4151068</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
-        <v>1612993293948</v>
+        <v>1612993281849</v>
       </c>
       <c r="C22" s="2">
-        <v>1612993293986</v>
+        <v>1612993275680</v>
       </c>
       <c r="D22">
         <v>1.2589254000000001</v>
       </c>
       <c r="E22">
-        <v>0.89125089999999996</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G22">
         <v>1.5</v>
       </c>
-      <c r="H22" s="7">
-        <f>ABS(B22-C22)</f>
-        <v>38</v>
-      </c>
-      <c r="I22" s="5">
-        <f>ABS(F22-D22)</f>
+      <c r="H22" s="6">
+        <f t="shared" si="9"/>
+        <v>6169</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="10"/>
+        <v>0.35892540000000006</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="13"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="J22" s="5">
-        <f>ABS(F22-E22)</f>
-        <v>0.60874910000000004</v>
-      </c>
-      <c r="K22" s="5">
-        <f>ABS(G22-F22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <f>ABS(D22-G22)</f>
-        <v>0.24107459999999992</v>
-      </c>
-      <c r="M22" s="5">
-        <f>ABS(E22-G22)</f>
-        <v>0.60874910000000004</v>
+      <c r="M22" s="4">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2">
-        <v>1612993322438</v>
+        <v>1612993293948</v>
       </c>
       <c r="C23" s="2">
-        <v>1612993318833</v>
+        <v>1612993293986</v>
       </c>
       <c r="D23">
         <v>1.2589254000000001</v>
       </c>
       <c r="E23">
-        <v>1.1220185</v>
+        <v>0.89125089999999996</v>
       </c>
       <c r="F23">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G23">
         <v>1.5</v>
       </c>
-      <c r="H23" s="7">
-        <f>ABS(B23-C23)</f>
-        <v>3605</v>
-      </c>
-      <c r="I23" s="5">
-        <f>ABS(F23-D23)</f>
-        <v>0.85892540000000006</v>
-      </c>
-      <c r="J23" s="5">
-        <f>ABS(F23-E23)</f>
-        <v>0.72201850000000001</v>
-      </c>
-      <c r="K23" s="5">
-        <f>ABS(G23-F23)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23" s="5">
-        <f>ABS(D23-G23)</f>
+      <c r="H23" s="6">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="10"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M23" s="5">
-        <f>ABS(E23-G23)</f>
-        <v>0.37798149999999997</v>
+      <c r="J23" s="4">
+        <f t="shared" si="11"/>
+        <v>0.60874910000000004</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="13"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="14"/>
+        <v>0.60874910000000004</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
-        <v>1612993336905</v>
+        <v>1612993322438</v>
       </c>
       <c r="C24" s="2">
-        <v>1612993337867</v>
+        <v>1612993318833</v>
       </c>
       <c r="D24">
+        <v>1.2589254000000001</v>
+      </c>
+      <c r="E24">
         <v>1.1220185</v>
       </c>
-      <c r="E24">
-        <v>0.89125089999999996</v>
-      </c>
       <c r="F24">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="G24">
         <v>1.5</v>
       </c>
-      <c r="H24" s="7">
-        <f>ABS(B24-C24)</f>
-        <v>962</v>
-      </c>
-      <c r="I24" s="5">
-        <f>ABS(F24-D24)</f>
-        <v>0.97798150000000006</v>
-      </c>
-      <c r="J24" s="5">
-        <f>ABS(F24-E24)</f>
-        <v>1.2087491000000001</v>
-      </c>
-      <c r="K24" s="5">
-        <f>ABS(G24-F24)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L24" s="5">
-        <f>ABS(D24-G24)</f>
+      <c r="H24" s="6">
+        <f t="shared" si="9"/>
+        <v>3605</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="10"/>
+        <v>0.85892540000000006</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="11"/>
+        <v>0.72201850000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="12"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="13"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="14"/>
         <v>0.37798149999999997</v>
-      </c>
-      <c r="M24" s="5">
-        <f>ABS(E24-G24)</f>
-        <v>0.60874910000000004</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
-        <v>1612993379102</v>
+        <v>1612993336905</v>
       </c>
       <c r="C25" s="2">
-        <v>1612993376433</v>
+        <v>1612993337867</v>
       </c>
       <c r="D25">
-        <v>0.70794575999999998</v>
+        <v>1.1220185</v>
       </c>
       <c r="E25">
-        <v>0.79432820000000004</v>
+        <v>0.89125089999999996</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7">
-        <f>ABS(B25-C25)</f>
-        <v>2669</v>
-      </c>
-      <c r="I25" s="5">
-        <f>ABS(F25-D25)</f>
-        <v>0.20794575999999998</v>
-      </c>
-      <c r="J25" s="5">
-        <f>ABS(F25-E25)</f>
-        <v>0.29432820000000004</v>
-      </c>
-      <c r="K25" s="5">
-        <f>ABS(G25-F25)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="5">
-        <f>ABS(D25-G25)</f>
-        <v>0.29205424000000002</v>
-      </c>
-      <c r="M25" s="5">
-        <f>ABS(E25-G25)</f>
-        <v>0.20567179999999996</v>
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="9"/>
+        <v>962</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="10"/>
+        <v>0.97798150000000006</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2087491000000001</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="13"/>
+        <v>0.37798149999999997</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="14"/>
+        <v>0.60874910000000004</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2">
-        <v>1612993388215</v>
+        <v>1612993379102</v>
       </c>
       <c r="C26" s="2">
-        <v>1612993394570</v>
+        <v>1612993376433</v>
       </c>
       <c r="D26">
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="E26">
         <v>0.79432820000000004</v>
       </c>
-      <c r="E26">
-        <v>0.89125089999999996</v>
-      </c>
       <c r="F26">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="7">
-        <f>ABS(B26-C26)</f>
-        <v>6355</v>
-      </c>
-      <c r="I26" s="5">
-        <f>ABS(F26-D26)</f>
-        <v>0.5056718</v>
-      </c>
-      <c r="J26" s="5">
-        <f>ABS(F26-E26)</f>
-        <v>0.40874910000000009</v>
-      </c>
-      <c r="K26" s="5">
-        <f>ABS(G26-F26)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L26" s="5">
-        <f>ABS(D26-G26)</f>
+      <c r="H26" s="6">
+        <f t="shared" si="9"/>
+        <v>2669</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="10"/>
+        <v>0.20794575999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="11"/>
+        <v>0.29432820000000004</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="13"/>
+        <v>0.29205424000000002</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="14"/>
         <v>0.20567179999999996</v>
-      </c>
-      <c r="M26" s="5">
-        <f>ABS(E26-G26)</f>
-        <v>0.10874910000000004</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
-        <v>1612993421705</v>
+        <v>1612993388215</v>
       </c>
       <c r="C27" s="2">
-        <v>1612993421026</v>
+        <v>1612993394570</v>
       </c>
       <c r="D27">
-        <v>0.70794575999999998</v>
+        <v>0.79432820000000004</v>
       </c>
       <c r="E27">
-        <v>0.63095736999999996</v>
+        <v>0.89125089999999996</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="7">
-        <f>ABS(B27-C27)</f>
-        <v>679</v>
-      </c>
-      <c r="I27" s="5">
-        <f>ABS(F27-D27)</f>
-        <v>0.70794575999999998</v>
-      </c>
-      <c r="J27" s="5">
-        <f>ABS(F27-E27)</f>
-        <v>0.63095736999999996</v>
-      </c>
-      <c r="K27" s="5">
-        <f>ABS(G27-F27)</f>
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
-        <f>ABS(D27-G27)</f>
-        <v>0.29205424000000002</v>
-      </c>
-      <c r="M27" s="5">
-        <f>ABS(E27-G27)</f>
-        <v>0.36904263000000004</v>
+      <c r="H27" s="6">
+        <f t="shared" si="9"/>
+        <v>6355</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5056718</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="11"/>
+        <v>0.40874910000000009</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="12"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="13"/>
+        <v>0.20567179999999996</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="14"/>
+        <v>0.10874910000000004</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2">
-        <v>1612993431027</v>
+        <v>1612993421705</v>
       </c>
       <c r="C28" s="2">
-        <v>1612993433217</v>
+        <v>1612993421026</v>
       </c>
       <c r="D28">
-        <v>0.79432820000000004</v>
+        <v>0.70794575999999998</v>
       </c>
       <c r="E28">
-        <v>0.89125089999999996</v>
+        <v>0.63095736999999996</v>
       </c>
       <c r="F28">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="7">
-        <f>ABS(B28-C28)</f>
+      <c r="H28" s="6">
+        <f t="shared" si="9"/>
+        <v>679</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="10"/>
+        <v>0.70794575999999998</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="11"/>
+        <v>0.63095736999999996</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="13"/>
+        <v>0.29205424000000002</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="14"/>
+        <v>0.36904263000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1612993431027</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1612993433217</v>
+      </c>
+      <c r="D29">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="E29">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F29">
+        <v>1.2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="9"/>
         <v>2190</v>
       </c>
-      <c r="I28" s="5">
-        <f>ABS(F28-D28)</f>
+      <c r="I29" s="4">
+        <f t="shared" si="10"/>
         <v>0.40567179999999992</v>
       </c>
-      <c r="J28" s="5">
-        <f>ABS(F28-E28)</f>
+      <c r="J29" s="4">
+        <f t="shared" si="11"/>
         <v>0.3087491</v>
       </c>
-      <c r="K28" s="5">
-        <f>ABS(G28-F28)</f>
+      <c r="K29" s="4">
+        <f t="shared" si="12"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L28" s="5">
-        <f>ABS(D28-G28)</f>
+      <c r="L29" s="4">
+        <f t="shared" si="13"/>
         <v>0.20567179999999996</v>
       </c>
-      <c r="M28" s="5">
-        <f>ABS(E28-G28)</f>
+      <c r="M29" s="4">
+        <f t="shared" si="14"/>
         <v>0.10874910000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="6">
-        <f>AVERAGE(H17:H28)</f>
+      <c r="H30" s="5">
+        <f>AVERAGE(H18:H29)</f>
         <v>4848.166666666667</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" ref="I29" si="8">AVERAGE(I17:I28)</f>
+      <c r="I30" s="5">
+        <f t="shared" ref="I30" si="15">AVERAGE(I18:I29)</f>
         <v>0.63034516833333332</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" ref="J29" si="9">AVERAGE(J17:J28)</f>
+      <c r="J30" s="5">
+        <f t="shared" ref="J30" si="16">AVERAGE(J18:J29)</f>
         <v>0.66715835583333349</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" ref="K29" si="10">AVERAGE(K17:K28)</f>
+      <c r="K30" s="5">
+        <f t="shared" ref="K30" si="17">AVERAGE(K18:K29)</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" ref="L29" si="11">AVERAGE(L17:L28)</f>
+      <c r="L30" s="5">
+        <f t="shared" ref="L30" si="18">AVERAGE(L18:L29)</f>
         <v>0.24862831500000002</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" ref="M29" si="12">AVERAGE(M17:M28)</f>
+      <c r="M30" s="5">
+        <f t="shared" ref="M30" si="19">AVERAGE(M18:M29)</f>
         <v>0.36289444416666661</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="5">
+        <f>MEDIAN(H18:H29)</f>
+        <v>3092</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ref="I31:M31" si="20">MEDIAN(I18:I29)</f>
+        <v>0.51369619999999994</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="20"/>
+        <v>0.619853235</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="20"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="20"/>
+        <v>0.23139759999999998</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="20"/>
+        <v>0.39654414999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="6">
-        <f>_xlfn.STDEV.S(H17:H28)</f>
+      <c r="H32" s="5">
+        <f>_xlfn.STDEV.S(H18:H29)</f>
         <v>5526.2195006800966</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:M30" si="13">_xlfn.STDEV.S(I17:I28)</f>
+      <c r="I32" s="5">
+        <f t="shared" ref="I32:M32" si="21">_xlfn.STDEV.S(I18:I29)</f>
         <v>0.43001671874849723</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" si="13"/>
+      <c r="J32" s="5">
+        <f t="shared" si="21"/>
         <v>0.47495071351976609</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" si="13"/>
+      <c r="K32" s="5">
+        <f t="shared" si="21"/>
         <v>0.48304589153964794</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="13"/>
+      <c r="L32" s="5">
+        <f t="shared" si="21"/>
         <v>4.9782864058679446E-2</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="13"/>
+      <c r="M32" s="5">
+        <f t="shared" si="21"/>
         <v>0.17108198269110636</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1612993772657</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1612993769733</v>
-      </c>
-      <c r="D32">
-        <v>1.5848932</v>
-      </c>
-      <c r="E32">
-        <v>1.5848932</v>
-      </c>
-      <c r="F32">
-        <v>1.6</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7">
-        <f>ABS(B32-C32)</f>
-        <v>2924</v>
-      </c>
-      <c r="I32" s="5">
-        <f>ABS(F32-D32)</f>
-        <v>1.5106800000000087E-2</v>
-      </c>
-      <c r="J32" s="5">
-        <f>ABS(F32-E32)</f>
-        <v>1.5106800000000087E-2</v>
-      </c>
-      <c r="K32" s="5">
-        <f>ABS(G32-F32)</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L32" s="5">
-        <f>ABS(D32-G32)</f>
-        <v>0.4151068</v>
-      </c>
-      <c r="M32" s="5">
-        <f>ABS(E32-G32)</f>
-        <v>0.4151068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1612993819054</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1612993820804</v>
-      </c>
-      <c r="D33">
-        <v>1.7782794</v>
-      </c>
-      <c r="E33">
-        <v>1.7782794</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="7">
-        <f>ABS(B33-C33)</f>
-        <v>1750</v>
-      </c>
-      <c r="I33" s="5">
-        <f>ABS(F33-D33)</f>
-        <v>1.2217206</v>
-      </c>
-      <c r="J33" s="5">
-        <f>ABS(F33-E33)</f>
-        <v>1.2217206</v>
-      </c>
-      <c r="K33" s="5">
-        <f>ABS(G33-F33)</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
-        <f>ABS(D33-G33)</f>
-        <v>0.22172060000000005</v>
-      </c>
-      <c r="M33" s="5">
-        <f>ABS(E33-G33)</f>
-        <v>0.22172060000000005</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2">
-        <v>1612993831518</v>
+        <v>1612993772657</v>
       </c>
       <c r="C34" s="2">
-        <v>1612993830525</v>
+        <v>1612993769733</v>
       </c>
       <c r="D34">
-        <v>1.7782794</v>
+        <v>1.5848932</v>
       </c>
       <c r="E34">
-        <v>1.7782794</v>
+        <v>1.5848932</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="7">
-        <f>ABS(B34-C34)</f>
-        <v>993</v>
-      </c>
-      <c r="I34" s="5">
-        <f>ABS(F34-D34)</f>
-        <v>0.22172060000000005</v>
-      </c>
-      <c r="J34" s="5">
-        <f>ABS(F34-E34)</f>
-        <v>0.22172060000000005</v>
-      </c>
-      <c r="K34" s="5">
-        <f>ABS(G34-F34)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <f>ABS(D34-G34)</f>
-        <v>0.22172060000000005</v>
-      </c>
-      <c r="M34" s="5">
-        <f>ABS(E34-G34)</f>
-        <v>0.22172060000000005</v>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34:H45" si="22">ABS(B34-C34)</f>
+        <v>2924</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34:I45" si="23">ABS(F34-D34)</f>
+        <v>1.5106800000000087E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" ref="J34:J45" si="24">ABS(F34-E34)</f>
+        <v>1.5106800000000087E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:K45" si="25">ABS(G34-F34)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34:L45" si="26">ABS(D34-G34)</f>
+        <v>0.4151068</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M45" si="27">ABS(E34-G34)</f>
+        <v>0.4151068</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
-        <v>1612993883446</v>
+        <v>1612993819054</v>
       </c>
       <c r="C35" s="2">
-        <v>1612993859646</v>
+        <v>1612993820804</v>
       </c>
       <c r="D35">
         <v>1.7782794</v>
@@ -4977,139 +7607,139 @@
         <v>1.7782794</v>
       </c>
       <c r="F35">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="7">
-        <f>ABS(B35-C35)</f>
-        <v>23800</v>
-      </c>
-      <c r="I35" s="5">
-        <f>ABS(F35-D35)</f>
-        <v>1.1217206</v>
-      </c>
-      <c r="J35" s="5">
-        <f>ABS(F35-E35)</f>
-        <v>1.1217206</v>
-      </c>
-      <c r="K35" s="5">
-        <f>ABS(G35-F35)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="L35" s="5">
-        <f>ABS(D35-G35)</f>
+      <c r="H35" s="6">
+        <f t="shared" si="22"/>
+        <v>1750</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="23"/>
+        <v>1.2217206</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="24"/>
+        <v>1.2217206</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="26"/>
         <v>0.22172060000000005</v>
       </c>
-      <c r="M35" s="5">
-        <f>ABS(E35-G35)</f>
+      <c r="M35" s="4">
+        <f t="shared" si="27"/>
         <v>0.22172060000000005</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2">
-        <v>1612993917058</v>
+        <v>1612993831518</v>
       </c>
       <c r="C36" s="2">
-        <v>1612993914186</v>
+        <v>1612993830525</v>
       </c>
       <c r="D36">
-        <v>1.2589254000000001</v>
+        <v>1.7782794</v>
       </c>
       <c r="E36">
-        <v>1.2589254000000001</v>
+        <v>1.7782794</v>
       </c>
       <c r="F36">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
-      </c>
-      <c r="H36" s="7">
-        <f>ABS(B36-C36)</f>
-        <v>2872</v>
-      </c>
-      <c r="I36" s="5">
-        <f>ABS(F36-D36)</f>
-        <v>0.15892539999999999</v>
-      </c>
-      <c r="J36" s="5">
-        <f>ABS(F36-E36)</f>
-        <v>0.15892539999999999</v>
-      </c>
-      <c r="K36" s="5">
-        <f>ABS(G36-F36)</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L36" s="5">
-        <f>ABS(D36-G36)</f>
-        <v>0.24107459999999992</v>
-      </c>
-      <c r="M36" s="5">
-        <f>ABS(E36-G36)</f>
-        <v>0.24107459999999992</v>
+        <v>2</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="22"/>
+        <v>993</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="23"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="24"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="26"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="27"/>
+        <v>0.22172060000000005</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2">
-        <v>1612993929532</v>
+        <v>1612993883446</v>
       </c>
       <c r="C37" s="2">
-        <v>1612993937666</v>
+        <v>1612993859646</v>
       </c>
       <c r="D37">
-        <v>1.2589254000000001</v>
+        <v>1.7782794</v>
       </c>
       <c r="E37">
-        <v>1.2589254000000001</v>
+        <v>1.7782794</v>
       </c>
       <c r="F37">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="G37">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="7">
-        <f>ABS(B37-C37)</f>
-        <v>8134</v>
-      </c>
-      <c r="I37" s="5">
-        <f>ABS(F37-D37)</f>
-        <v>1.0410745999999997</v>
-      </c>
-      <c r="J37" s="5">
-        <f>ABS(F37-E37)</f>
-        <v>1.0410745999999997</v>
-      </c>
-      <c r="K37" s="5">
-        <f>ABS(G37-F37)</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="L37" s="5">
-        <f>ABS(D37-G37)</f>
-        <v>0.24107459999999992</v>
-      </c>
-      <c r="M37" s="5">
-        <f>ABS(E37-G37)</f>
-        <v>0.24107459999999992</v>
+        <v>2</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="22"/>
+        <v>23800</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="23"/>
+        <v>1.1217206</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="24"/>
+        <v>1.1217206</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="25"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="26"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="27"/>
+        <v>0.22172060000000005</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2">
-        <v>1612993958152</v>
+        <v>1612993917058</v>
       </c>
       <c r="C38" s="2">
-        <v>1612993959401</v>
+        <v>1612993914186</v>
       </c>
       <c r="D38">
         <v>1.2589254000000001</v>
@@ -5118,45 +7748,45 @@
         <v>1.2589254000000001</v>
       </c>
       <c r="F38">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
         <v>1.5</v>
       </c>
-      <c r="H38" s="7">
-        <f>ABS(B38-C38)</f>
-        <v>1249</v>
-      </c>
-      <c r="I38" s="5">
-        <f>ABS(F38-D38)</f>
-        <v>0.55892540000000013</v>
-      </c>
-      <c r="J38" s="5">
-        <f>ABS(F38-E38)</f>
-        <v>0.55892540000000013</v>
-      </c>
-      <c r="K38" s="5">
-        <f>ABS(G38-F38)</f>
-        <v>0.8</v>
-      </c>
-      <c r="L38" s="5">
-        <f>ABS(D38-G38)</f>
+      <c r="H38" s="6">
+        <f t="shared" si="22"/>
+        <v>2872</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="23"/>
+        <v>0.15892539999999999</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="24"/>
+        <v>0.15892539999999999</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="25"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="26"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M38" s="5">
-        <f>ABS(E38-G38)</f>
+      <c r="M38" s="4">
+        <f t="shared" si="27"/>
         <v>0.24107459999999992</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2">
-        <v>1612993980741</v>
+        <v>1612993929532</v>
       </c>
       <c r="C39" s="2">
-        <v>1612993985768</v>
+        <v>1612993937666</v>
       </c>
       <c r="D39">
         <v>1.2589254000000001</v>
@@ -5165,337 +7795,460 @@
         <v>1.2589254000000001</v>
       </c>
       <c r="F39">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G39">
         <v>1.5</v>
       </c>
-      <c r="H39" s="7">
-        <f>ABS(B39-C39)</f>
-        <v>5027</v>
-      </c>
-      <c r="I39" s="5">
-        <f>ABS(F39-D39)</f>
-        <v>4.1074599999999961E-2</v>
-      </c>
-      <c r="J39" s="5">
-        <f>ABS(F39-E39)</f>
-        <v>4.1074599999999961E-2</v>
-      </c>
-      <c r="K39" s="5">
-        <f>ABS(G39-F39)</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L39" s="5">
-        <f>ABS(D39-G39)</f>
+      <c r="H39" s="6">
+        <f t="shared" si="22"/>
+        <v>8134</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="23"/>
+        <v>1.0410745999999997</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="24"/>
+        <v>1.0410745999999997</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="25"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="26"/>
         <v>0.24107459999999992</v>
       </c>
-      <c r="M39" s="5">
-        <f>ABS(E39-G39)</f>
+      <c r="M39" s="4">
+        <f t="shared" si="27"/>
         <v>0.24107459999999992</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
-        <v>1612994057549</v>
+        <v>1612993958152</v>
       </c>
       <c r="C40" s="2">
-        <v>1612994054357</v>
+        <v>1612993959401</v>
       </c>
       <c r="D40">
-        <v>0.89125089999999996</v>
+        <v>1.2589254000000001</v>
       </c>
       <c r="E40">
-        <v>0.89125089999999996</v>
+        <v>1.2589254000000001</v>
       </c>
       <c r="F40">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
-        <f>ABS(B40-C40)</f>
-        <v>3192</v>
-      </c>
-      <c r="I40" s="5">
-        <f>ABS(F40-D40)</f>
-        <v>8.7491000000000652E-3</v>
-      </c>
-      <c r="J40" s="5">
-        <f>ABS(F40-E40)</f>
-        <v>8.7491000000000652E-3</v>
-      </c>
-      <c r="K40" s="5">
-        <f>ABS(G40-F40)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="L40" s="5">
-        <f>ABS(D40-G40)</f>
-        <v>0.10874910000000004</v>
-      </c>
-      <c r="M40" s="5">
-        <f>ABS(E40-G40)</f>
-        <v>0.10874910000000004</v>
+        <v>1.5</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="22"/>
+        <v>1249</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="23"/>
+        <v>0.55892540000000013</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="24"/>
+        <v>0.55892540000000013</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="26"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="27"/>
+        <v>0.24107459999999992</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2">
-        <v>1612994072945</v>
+        <v>1612993980741</v>
       </c>
       <c r="C41" s="2">
-        <v>1612994077065</v>
+        <v>1612993985768</v>
       </c>
       <c r="D41">
-        <v>0.89125089999999996</v>
+        <v>1.2589254000000001</v>
       </c>
       <c r="E41">
-        <v>0.79432820000000004</v>
+        <v>1.2589254000000001</v>
       </c>
       <c r="F41">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
-        <f>ABS(B41-C41)</f>
-        <v>4120</v>
-      </c>
-      <c r="I41" s="5">
-        <f>ABS(F41-D41)</f>
-        <v>1.4087490999999999</v>
-      </c>
-      <c r="J41" s="5">
-        <f>ABS(F41-E41)</f>
-        <v>1.5056717999999998</v>
-      </c>
-      <c r="K41" s="5">
-        <f>ABS(G41-F41)</f>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="L41" s="5">
-        <f>ABS(D41-G41)</f>
-        <v>0.10874910000000004</v>
-      </c>
-      <c r="M41" s="5">
-        <f>ABS(E41-G41)</f>
-        <v>0.20567179999999996</v>
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="22"/>
+        <v>5027</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="23"/>
+        <v>4.1074599999999961E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="24"/>
+        <v>4.1074599999999961E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="25"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="26"/>
+        <v>0.24107459999999992</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="27"/>
+        <v>0.24107459999999992</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
-        <v>1612994112456</v>
+        <v>1612994057549</v>
       </c>
       <c r="C42" s="2">
-        <v>1612994096928</v>
+        <v>1612994054357</v>
       </c>
       <c r="D42">
         <v>0.89125089999999996</v>
       </c>
       <c r="E42">
-        <v>0.79432820000000004</v>
+        <v>0.89125089999999996</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="7">
-        <f>ABS(B42-C42)</f>
-        <v>15528</v>
-      </c>
-      <c r="I42" s="5">
-        <f>ABS(F42-D42)</f>
+      <c r="H42" s="6">
+        <f t="shared" si="22"/>
+        <v>3192</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="23"/>
+        <v>8.7491000000000652E-3</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="24"/>
+        <v>8.7491000000000652E-3</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="26"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="J42" s="5">
-        <f>ABS(F42-E42)</f>
-        <v>0.20567179999999996</v>
-      </c>
-      <c r="K42" s="5">
-        <f>ABS(G42-F42)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <f>ABS(D42-G42)</f>
+      <c r="M42" s="4">
+        <f t="shared" si="27"/>
         <v>0.10874910000000004</v>
-      </c>
-      <c r="M42" s="5">
-        <f>ABS(E42-G42)</f>
-        <v>0.20567179999999996</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
-        <v>1612994120603</v>
+        <v>1612994072945</v>
       </c>
       <c r="C43" s="2">
-        <v>1612994125718</v>
+        <v>1612994077065</v>
       </c>
       <c r="D43">
         <v>0.89125089999999996</v>
       </c>
       <c r="E43">
-        <v>0.89125089999999996</v>
+        <v>0.79432820000000004</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="7">
-        <f>ABS(B43-C43)</f>
+      <c r="H43" s="6">
+        <f t="shared" si="22"/>
+        <v>4120</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="23"/>
+        <v>1.4087490999999999</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="24"/>
+        <v>1.5056717999999998</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="25"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="26"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="27"/>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1612994112456</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1612994096928</v>
+      </c>
+      <c r="D44">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E44">
+        <v>0.79432820000000004</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="22"/>
+        <v>15528</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="23"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="24"/>
+        <v>0.20567179999999996</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="26"/>
+        <v>0.10874910000000004</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="27"/>
+        <v>0.20567179999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1612994120603</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1612994125718</v>
+      </c>
+      <c r="D45">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="E45">
+        <v>0.89125089999999996</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="22"/>
         <v>5115</v>
       </c>
-      <c r="I43" s="5">
-        <f>ABS(F43-D43)</f>
+      <c r="I45" s="4">
+        <f t="shared" si="23"/>
         <v>1.1087491</v>
       </c>
-      <c r="J43" s="5">
-        <f>ABS(F43-E43)</f>
+      <c r="J45" s="4">
+        <f t="shared" si="24"/>
         <v>1.1087491</v>
       </c>
-      <c r="K43" s="5">
-        <f>ABS(G43-F43)</f>
+      <c r="K45" s="4">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="L43" s="5">
-        <f>ABS(D43-G43)</f>
+      <c r="L45" s="4">
+        <f t="shared" si="26"/>
         <v>0.10874910000000004</v>
       </c>
-      <c r="M43" s="5">
-        <f>ABS(E43-G43)</f>
+      <c r="M45" s="4">
+        <f t="shared" si="27"/>
         <v>0.10874910000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="6">
-        <f>AVERAGE(H32:H43)</f>
+      <c r="H46" s="5">
+        <f>AVERAGE(H34:H45)</f>
         <v>6225.333333333333</v>
       </c>
-      <c r="I44" s="6">
-        <f t="shared" ref="I44" si="14">AVERAGE(I32:I43)</f>
+      <c r="I46" s="5">
+        <f t="shared" ref="I46" si="28">AVERAGE(I34:I45)</f>
         <v>0.58460541666666666</v>
       </c>
-      <c r="J44" s="6">
-        <f t="shared" ref="J44" si="15">AVERAGE(J32:J43)</f>
+      <c r="J46" s="5">
+        <f t="shared" ref="J46" si="29">AVERAGE(J34:J45)</f>
         <v>0.60075920000000005</v>
       </c>
-      <c r="K44" s="6">
-        <f t="shared" ref="K44" si="16">AVERAGE(K32:K43)</f>
+      <c r="K46" s="5">
+        <f t="shared" ref="K46" si="30">AVERAGE(K34:K45)</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="L44" s="6">
-        <f t="shared" ref="L44" si="17">AVERAGE(L32:L43)</f>
+      <c r="L46" s="5">
+        <f t="shared" ref="L46" si="31">AVERAGE(L34:L45)</f>
         <v>0.20663028333333325</v>
       </c>
-      <c r="M44" s="6">
-        <f t="shared" ref="M44" si="18">AVERAGE(M32:M43)</f>
+      <c r="M46" s="5">
+        <f t="shared" ref="M46" si="32">AVERAGE(M34:M45)</f>
         <v>0.22278406666666664</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="5">
+        <f>MEDIAN(H34:H45)</f>
+        <v>3656</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" ref="I47:M47" si="33">MEDIAN(I34:I45)</f>
+        <v>0.39032300000000009</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="33"/>
+        <v>0.39032300000000009</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="33"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="33"/>
+        <v>0.22172060000000005</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="33"/>
+        <v>0.22172060000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="6">
-        <f>_xlfn.STDEV.S(H32:H43)</f>
+      <c r="H48" s="5">
+        <f>_xlfn.STDEV.S(H34:H45)</f>
         <v>6806.8639599816424</v>
       </c>
-      <c r="I45" s="6">
-        <f t="shared" ref="I45:M45" si="19">_xlfn.STDEV.S(I32:I43)</f>
+      <c r="I48" s="5">
+        <f t="shared" ref="I48:M48" si="34">_xlfn.STDEV.S(I34:I45)</f>
         <v>0.55169692672295723</v>
       </c>
-      <c r="J45" s="6">
-        <f t="shared" si="19"/>
+      <c r="J48" s="5">
+        <f t="shared" si="34"/>
         <v>0.55850735124781714</v>
       </c>
-      <c r="K45" s="6">
-        <f t="shared" si="19"/>
+      <c r="K48" s="5">
+        <f t="shared" si="34"/>
         <v>0.44543135375621107</v>
       </c>
-      <c r="L45" s="6">
-        <f t="shared" si="19"/>
+      <c r="L48" s="5">
+        <f t="shared" si="34"/>
         <v>8.9042461259291772E-2</v>
       </c>
-      <c r="M45" s="6">
-        <f t="shared" si="19"/>
+      <c r="M48" s="5">
+        <f t="shared" si="34"/>
         <v>7.6825189799846538E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="6">
-        <f>AVERAGE(H2:H13,H17:H28,H32:H43)</f>
+      <c r="H50" s="5">
+        <f t="shared" ref="H50:M50" si="35">AVERAGE(H2:H13,H18:H29,H34:H45)</f>
         <v>4911.5555555555557</v>
       </c>
-      <c r="I47" s="6">
-        <f>AVERAGE(I2:I13,I17:I28,I32:I43)</f>
+      <c r="I50" s="5">
+        <f t="shared" si="35"/>
         <v>0.52242810888888902</v>
       </c>
-      <c r="J47" s="6">
-        <f>AVERAGE(J2:J13,J17:J28,J32:J43)</f>
+      <c r="J50" s="5">
+        <f t="shared" si="35"/>
         <v>0.54678783361111094</v>
       </c>
-      <c r="K47" s="6">
-        <f>AVERAGE(K2:K13,K17:K28,K32:K43)</f>
+      <c r="K50" s="5">
+        <f t="shared" si="35"/>
         <v>0.5097222222222223</v>
       </c>
-      <c r="L47" s="6">
-        <f>AVERAGE(L2:L13,L17:L28,L32:L43)</f>
+      <c r="L50" s="5">
+        <f t="shared" si="35"/>
         <v>0.23517627444444456</v>
       </c>
-      <c r="M47" s="6">
-        <f>AVERAGE(M2:M13,M17:M28,M32:M43)</f>
+      <c r="M50" s="5">
+        <f t="shared" si="35"/>
         <v>0.28584950194444431</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="4">
-        <f>_xlfn.STDEV.P(H2:H13,H17:H28,H32:H43)</f>
+      <c r="H51" s="3">
+        <f>_xlfn.STDEV.P(H2:H13,H18:H29,H34:H45)</f>
         <v>5543.5457588304362</v>
       </c>
-      <c r="I48" s="4">
-        <f t="shared" ref="I48:M48" si="20">_xlfn.STDEV.P(I2:I13,I17:I28,I32:I43)</f>
+      <c r="I51" s="3">
+        <f t="shared" ref="I51:M51" si="36">_xlfn.STDEV.P(I2:I13,I18:I29,I34:I45)</f>
         <v>0.4283207981971543</v>
       </c>
-      <c r="J48" s="4">
-        <f t="shared" si="20"/>
+      <c r="J51" s="3">
+        <f t="shared" si="36"/>
         <v>0.43543169380556263</v>
       </c>
-      <c r="K48" s="4">
-        <f t="shared" si="20"/>
+      <c r="K51" s="3">
+        <f t="shared" si="36"/>
         <v>0.40066254927939249</v>
       </c>
-      <c r="L48" s="4">
-        <f t="shared" si="20"/>
+      <c r="L51" s="3">
+        <f t="shared" si="36"/>
         <v>9.2520997962081394E-2</v>
       </c>
-      <c r="M48" s="4">
-        <f t="shared" si="20"/>
+      <c r="M51" s="3">
+        <f t="shared" si="36"/>
         <v>0.13998435795260866</v>
       </c>
     </row>
@@ -5503,4 +8256,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377AE93-C821-4BA9-9DF0-20E149062D95}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2">
+        <f>AVERAGE(Results!$H$2:$H$5)</f>
+        <v>1840</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE(Results!$H$18:$H$21)</f>
+        <v>8877.75</v>
+      </c>
+      <c r="D2" s="2">
+        <f>AVERAGE(Results!$H$34:$H$37)</f>
+        <v>7366.75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.S(Results!H2:H5)</f>
+        <v>2334.5900425270956</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.STDEV.S(Results!H18:H21)</f>
+        <v>8123.6851397626187</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.STDEV.S(Results!H34:H37)</f>
+        <v>10984.266061811626</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <f>AVERAGE(Results!$H$2:$H$5)</f>
+        <v>1840</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>AVERAGE(Results!$H$6:$H$9)</f>
+        <v>5495.5</v>
+      </c>
+      <c r="R2" s="2">
+        <f>AVERAGE(Results!$H$10:$H$13)</f>
+        <v>3648</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$2:$H$5)</f>
+        <v>2334.5900425270956</v>
+      </c>
+      <c r="V2" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$6:$H$9)</f>
+        <v>5408.0114336664146</v>
+      </c>
+      <c r="W2" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$10:$H$13)</f>
+        <v>5488.6479816678593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE(Results!$H$6:$H$9)</f>
+        <v>5495.5</v>
+      </c>
+      <c r="C3" s="2">
+        <f>AVERAGE(Results!$H$22:$H$25)</f>
+        <v>2693.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f>AVERAGE(Results!$H$38:$H$41)</f>
+        <v>4320.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.STDEV.S(Results!H6:H9)</f>
+        <v>5408.0114336664146</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.STDEV.S(Results!H22:H25)</f>
+        <v>2766.4480837348096</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.STDEV.S(Results!H38:H41)</f>
+        <v>2976.2498215035644</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="2">
+        <f>AVERAGE(Results!$H$18:$H$21)</f>
+        <v>8877.75</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>AVERAGE(Results!$H$22:$H$25)</f>
+        <v>2693.5</v>
+      </c>
+      <c r="R3" s="2">
+        <f>AVERAGE(Results!$H$26:$H$29)</f>
+        <v>2973.25</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$18:$H$21)</f>
+        <v>8123.6851397626187</v>
+      </c>
+      <c r="V3" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$22:$H$25)</f>
+        <v>2766.4480837348096</v>
+      </c>
+      <c r="W3" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$26:$H$29)</f>
+        <v>2408.7247490459899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2">
+        <f>AVERAGE(Results!$H$10:$H$13)</f>
+        <v>3648</v>
+      </c>
+      <c r="C4" s="2">
+        <f>AVERAGE(Results!$H$26:$H$29)</f>
+        <v>2973.25</v>
+      </c>
+      <c r="D4" s="2">
+        <f>AVERAGE(Results!$H$42:$H$45)</f>
+        <v>6988.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.STDEV.S(Results!H10:H13)</f>
+        <v>5488.6479816678593</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.STDEV.S(Results!H26:H29)</f>
+        <v>2408.7247490459899</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.STDEV.S(Results!H42:H45)</f>
+        <v>5746.7314405668894</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <f>AVERAGE(Results!$H$34:$H$37)</f>
+        <v>7366.75</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>AVERAGE(Results!$H$38:$H$41)</f>
+        <v>4320.5</v>
+      </c>
+      <c r="R4" s="2">
+        <f>AVERAGE(Results!$H$42:$H$45)</f>
+        <v>6988.75</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$34:$H$37)</f>
+        <v>10984.266061811626</v>
+      </c>
+      <c r="V4" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$38:$H$41)</f>
+        <v>2976.2498215035644</v>
+      </c>
+      <c r="W4" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$42:$H$45)</f>
+        <v>5746.7314405668894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8">
+        <f>Results!$H$14</f>
+        <v>3661.1666666666665</v>
+      </c>
+      <c r="C5" s="8">
+        <f>Results!$H$30</f>
+        <v>4848.166666666667</v>
+      </c>
+      <c r="D5" s="8">
+        <f>Results!$H$46</f>
+        <v>6225.333333333333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <f>Results!H16</f>
+        <v>4484.2437861174913</v>
+      </c>
+      <c r="H5">
+        <f>Results!H32</f>
+        <v>5526.2195006800966</v>
+      </c>
+      <c r="I5">
+        <f>Results!H48</f>
+        <v>6806.8639599816424</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="2">
+        <f>AVERAGE(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)</f>
+        <v>6028.166666666667</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>AVERAGE(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)</f>
+        <v>4169.833333333333</v>
+      </c>
+      <c r="R5" s="2">
+        <f>AVERAGE(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)</f>
+        <v>4536.666666666667</v>
+      </c>
+      <c r="T5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)</f>
+        <v>7897.6791623561894</v>
+      </c>
+      <c r="V5" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)</f>
+        <v>3730.8574162792743</v>
+      </c>
+      <c r="W5" s="2">
+        <f>_xlfn.STDEV.S(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)</f>
+        <v>4708.2447285843609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/processed/main_experiment_results.xlsx
+++ b/data/processed/main_experiment_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ryan\Documents\University\4th_Year\Level_4_Project\Keep-Your-Distance\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9963630A-D209-4CC0-A54D-077F325BE7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6696C3-0308-428F-8198-C695E1CED463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{FB0648F8-60FD-4E6A-AAF7-B25718980B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Physical" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="98">
   <si>
     <t>Living Room</t>
   </si>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,10 +385,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,16 +1264,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2334.5900425270956</c:v>
+                    <c:v>2.3345900425270956</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8123.6851397626187</c:v>
+                    <c:v>8.1236851397626193</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10984.266061811626</c:v>
+                    <c:v>10.984266061811626</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7897.6791623561894</c:v>
+                    <c:v>7.8976791623561891</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1284,16 +1285,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2334.5900425270956</c:v>
+                    <c:v>2.3345900425270956</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8123.6851397626187</c:v>
+                    <c:v>8.1236851397626193</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10984.266061811626</c:v>
+                    <c:v>10.984266061811626</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7897.6791623561894</c:v>
+                    <c:v>7.8976791623561891</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1336,19 +1337,19 @@
             <c:numRef>
               <c:f>'Clustered Bar Chart'!$P$2:$P$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1840</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8877.75</c:v>
+                  <c:v>8.8777500000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7366.75</c:v>
+                  <c:v>7.3667499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6028.166666666667</c:v>
+                  <c:v>6.0281666666666673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,16 +1395,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5408.0114336664146</c:v>
+                    <c:v>5.4080114336664149</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2766.4480837348096</c:v>
+                    <c:v>2.7664480837348098</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2976.2498215035644</c:v>
+                    <c:v>2.9762498215035644</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3730.8574162792743</c:v>
+                    <c:v>3.7308574162792745</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1415,16 +1416,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5408.0114336664146</c:v>
+                    <c:v>5.4080114336664149</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2766.4480837348096</c:v>
+                    <c:v>2.7664480837348098</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2976.2498215035644</c:v>
+                    <c:v>2.9762498215035644</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3730.8574162792743</c:v>
+                    <c:v>3.7308574162792745</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1467,19 +1468,19 @@
             <c:numRef>
               <c:f>'Clustered Bar Chart'!$Q$2:$Q$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5495.5</c:v>
+                  <c:v>5.4954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2693.5</c:v>
+                  <c:v>2.6934999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4320.5</c:v>
+                  <c:v>4.3205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4169.833333333333</c:v>
+                  <c:v>4.1698333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,16 +1526,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5488.6479816678593</c:v>
+                    <c:v>5.4886479816678593</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2408.7247490459899</c:v>
+                    <c:v>2.40872474904599</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5746.7314405668894</c:v>
+                    <c:v>5.7467314405668892</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4708.2447285843609</c:v>
+                    <c:v>4.7082447285843605</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1546,16 +1547,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5488.6479816678593</c:v>
+                    <c:v>5.4886479816678593</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2408.7247490459899</c:v>
+                    <c:v>2.40872474904599</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5746.7314405668894</c:v>
+                    <c:v>5.7467314405668892</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4708.2447285843609</c:v>
+                    <c:v>4.7082447285843605</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1598,19 +1599,19 @@
             <c:numRef>
               <c:f>'Clustered Bar Chart'!$R$2:$R$5</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3648</c:v>
+                  <c:v>3.6480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2973.25</c:v>
+                  <c:v>2.9732500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6988.75</c:v>
+                  <c:v>6.9887499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4536.666666666667</c:v>
+                  <c:v>4.5366666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,7 +1729,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400"/>
-                  <a:t>Time taken: Lower is better (milliseconds)</a:t>
+                  <a:t>Time taken: Lower is better (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1762,7 +1763,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3360,12 +3361,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -3452,12 +3453,12 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3530,12 +3531,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -6179,7 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB863490-372B-4C46-99E7-D29050CDA671}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15:M15"/>
     </sheetView>
   </sheetViews>
@@ -8260,10 +8261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377AE93-C821-4BA9-9DF0-20E149062D95}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,7 +8278,7 @@
     <col min="20" max="20" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -8326,8 +8327,32 @@
       <c r="W1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -8361,36 +8386,67 @@
       <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="9">
+        <f>AVERAGE(Results!$H$2:$H$5)/1000</f>
+        <v>1.84</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>AVERAGE(Results!$H$6:$H$9)/1000</f>
+        <v>5.4954999999999998</v>
+      </c>
+      <c r="R2" s="9">
+        <f>AVERAGE(Results!$H$10:$H$13)/1000</f>
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$2:$H$5)/1000</f>
+        <v>2.3345900425270956</v>
+      </c>
+      <c r="V2" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$6:$H$9)/1000</f>
+        <v>5.4080114336664149</v>
+      </c>
+      <c r="W2" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$10:$H$13)/1000</f>
+        <v>5.4886479816678593</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
         <f>AVERAGE(Results!$H$2:$H$5)</f>
         <v>1840</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="AG2" s="2">
         <f>AVERAGE(Results!$H$6:$H$9)</f>
         <v>5495.5</v>
       </c>
-      <c r="R2" s="2">
+      <c r="AH2" s="2">
         <f>AVERAGE(Results!$H$10:$H$13)</f>
         <v>3648</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
+      <c r="AK2" s="2">
         <f>_xlfn.STDEV.S(Results!$H$2:$H$5)</f>
         <v>2334.5900425270956</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AL2" s="2">
         <f>_xlfn.STDEV.S(Results!$H$6:$H$9)</f>
         <v>5408.0114336664146</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AM2" s="2">
         <f>_xlfn.STDEV.S(Results!$H$10:$H$13)</f>
         <v>5488.6479816678593</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -8424,36 +8480,67 @@
       <c r="O3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="9">
+        <f>AVERAGE(Results!$H$18:$H$21)/1000</f>
+        <v>8.8777500000000007</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>AVERAGE(Results!$H$22:$H$25)/1000</f>
+        <v>2.6934999999999998</v>
+      </c>
+      <c r="R3" s="9">
+        <f>AVERAGE(Results!$H$26:$H$29)/1000</f>
+        <v>2.9732500000000002</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$18:$H$21)/1000</f>
+        <v>8.1236851397626193</v>
+      </c>
+      <c r="V3" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$22:$H$25)/1000</f>
+        <v>2.7664480837348098</v>
+      </c>
+      <c r="W3" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$26:$H$29)/1000</f>
+        <v>2.40872474904599</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="2">
         <f>AVERAGE(Results!$H$18:$H$21)</f>
         <v>8877.75</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="AG3" s="2">
         <f>AVERAGE(Results!$H$22:$H$25)</f>
         <v>2693.5</v>
       </c>
-      <c r="R3" s="2">
+      <c r="AH3" s="2">
         <f>AVERAGE(Results!$H$26:$H$29)</f>
         <v>2973.25</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" t="s">
+      <c r="AI3" s="7"/>
+      <c r="AJ3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="2">
+      <c r="AK3" s="2">
         <f>_xlfn.STDEV.S(Results!$H$18:$H$21)</f>
         <v>8123.6851397626187</v>
       </c>
-      <c r="V3" s="2">
+      <c r="AL3" s="2">
         <f>_xlfn.STDEV.S(Results!$H$22:$H$25)</f>
         <v>2766.4480837348096</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AM3" s="2">
         <f>_xlfn.STDEV.S(Results!$H$26:$H$29)</f>
         <v>2408.7247490459899</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8487,48 +8574,79 @@
       <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="9">
+        <f>AVERAGE(Results!$H$34:$H$37)/1000</f>
+        <v>7.3667499999999997</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>AVERAGE(Results!$H$38:$H$41)/1000</f>
+        <v>4.3205</v>
+      </c>
+      <c r="R4" s="9">
+        <f>AVERAGE(Results!$H$42:$H$45)/1000</f>
+        <v>6.9887499999999996</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$34:$H$37)/1000</f>
+        <v>10.984266061811626</v>
+      </c>
+      <c r="V4" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$38:$H$41)/1000</f>
+        <v>2.9762498215035644</v>
+      </c>
+      <c r="W4" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$42:$H$45)/1000</f>
+        <v>5.7467314405668892</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="2">
         <f>AVERAGE(Results!$H$34:$H$37)</f>
         <v>7366.75</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="AG4" s="2">
         <f>AVERAGE(Results!$H$38:$H$41)</f>
         <v>4320.5</v>
       </c>
-      <c r="R4" s="2">
+      <c r="AH4" s="2">
         <f>AVERAGE(Results!$H$42:$H$45)</f>
         <v>6988.75</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" t="s">
+      <c r="AI4" s="7"/>
+      <c r="AJ4" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="2">
+      <c r="AK4" s="2">
         <f>_xlfn.STDEV.S(Results!$H$34:$H$37)</f>
         <v>10984.266061811626</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AL4" s="2">
         <f>_xlfn.STDEV.S(Results!$H$38:$H$41)</f>
         <v>2976.2498215035644</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AM4" s="2">
         <f>_xlfn.STDEV.S(Results!$H$42:$H$45)</f>
         <v>5746.7314405668894</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <f>Results!$H$14</f>
         <v>3661.1666666666665</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>Results!$H$30</f>
         <v>4848.166666666667</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>Results!$H$46</f>
         <v>6225.333333333333</v>
       </c>
@@ -8550,30 +8668,60 @@
       <c r="O5" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="9">
+        <f>AVERAGE(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)/1000</f>
+        <v>6.0281666666666673</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>AVERAGE(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)/1000</f>
+        <v>4.1698333333333331</v>
+      </c>
+      <c r="R5" s="9">
+        <f>AVERAGE(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)/1000</f>
+        <v>4.5366666666666671</v>
+      </c>
+      <c r="T5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)/1000</f>
+        <v>7.8976791623561891</v>
+      </c>
+      <c r="V5" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)/1000</f>
+        <v>3.7308574162792745</v>
+      </c>
+      <c r="W5" s="9">
+        <f>_xlfn.STDEV.S(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)/1000</f>
+        <v>4.7082447285843605</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF5" s="2">
         <f>AVERAGE(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)</f>
         <v>6028.166666666667</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="AG5" s="2">
         <f>AVERAGE(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)</f>
         <v>4169.833333333333</v>
       </c>
-      <c r="R5" s="2">
+      <c r="AH5" s="2">
         <f>AVERAGE(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)</f>
         <v>4536.666666666667</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AJ5" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="2">
+      <c r="AK5" s="2">
         <f>_xlfn.STDEV.S(Results!$H$2:$H$5,Results!$H$18:$H$21,Results!$H$34:$H$37)</f>
         <v>7897.6791623561894</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AL5" s="2">
         <f>_xlfn.STDEV.S(Results!$H$6:$H$9,Results!$H$22:$H$25,Results!$H$38:$H$41)</f>
         <v>3730.8574162792743</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AM5" s="2">
         <f>_xlfn.STDEV.S(Results!$H$10:$H$13,Results!$H$26:$H$29,Results!$H$42:$H$45)</f>
         <v>4708.2447285843609</v>
       </c>
